--- a/TEST/EvaluationTable.xlsx
+++ b/TEST/EvaluationTable.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,13 +385,5183 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.575</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>0.95</v>
+        <v>1.091666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>14.67897996783704</v>
+        <v>18.70893699585131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.091666666666667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.70893699585131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.091666666666667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.70893699585131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.091666666666667</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.70893699585131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.42110719591513</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18.42110719591513</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.42110719591513</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.99675346916364</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.091666666666667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18.70893033253939</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.99675346916364</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.99675346916364</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18.99675346916364</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.99675346916364</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18.99675346916364</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18.99675346916364</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.091666666666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18.70892366922747</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18.13325074273128</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11.80079524477791</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.80079524477791</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="C21" t="n">
+        <v>18.13325740604321</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10.64950936159281</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10.64950936159281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17.84542760610703</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18.42110053260321</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17.84542760610703</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18.42110053260321</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18.42110053260321</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.091666666666667</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18.70892366922747</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17.84542094279511</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.498276784903048</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8.922590531783028</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.922590531783028</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.634760731846853</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.346924268598761</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.346924268598761</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8.059101131974506</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.059114458598343</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8.346957585158354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.346957585158354</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.059127785222179</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.059127785222179</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.059127785222179</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.346957585158354</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.059127785222179</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7.771304648597923</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.059134448534097</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7.771304648597923</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7.771304648597923</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7.771291321974087</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7.771291321974087</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7.771291321974087</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.771291321974087</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.771291321974087</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7.771291321974087</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7.195645048725575</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7.195645048725575</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7.195645048725575</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7.195645048725575</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7.195645048725575</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7.195645048725575</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7.195651712037494</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7.195651712037494</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.195651712037494</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7.195651712037494</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7.483488175285586</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7.483488175285586</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7.483481511973667</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7.483488175285586</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7.771311311909841</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7.771311311909841</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7.483481511973667</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.483481511973667</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7.483481511973667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.483481511973667</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7.483481511973667</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.483488175285586</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7.483488175285586</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7.483488175285586</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C80" t="n">
+        <v>7.195658375349412</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6.907828575413238</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6.620012102100901</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.620012102100901</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6.332188965476646</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6.332188965476646</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6.04436582885239</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.04436582885239</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6.04436582885239</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.04436582885239</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6.04436582885239</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.756536028916216</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5.468706228980041</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.468706228980041</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6.332175638852808</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6.332175638852808</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.332175638852808</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.332175638852808</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.332175638852808</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.332175638852808</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.332175638852808</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6.33216897554089</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6.619992112165145</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.044345838916635</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.044345838916635</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.044345838916635</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6.044345838916635</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.044345838916635</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5.756522702292378</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.756522702292378</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.756522702292378</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.893053292419612</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.893053292419612</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.893053292419612</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.893053292419612</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.893053292419612</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.893053292419612</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.893053292419612</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.893053292419612</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.468699565668123</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.468699565668123</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.468699565668123</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5.468699565668123</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.180876429043868</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.8416666666666667</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.468712892291959</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.893053292419612</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.89305995573153</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.89305995573153</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.89305995573153</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.893053292419611</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.180883092355786</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.8583333333333333</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.893053292419611</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.605223492483437</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.605223492483437</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.605223492483437</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.317400355859181</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.317400355859181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.317400355859181</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.317400355859181</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.741754082610671</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.16610780936216</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2.878284672737904</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C258" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C259" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C283" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.166114472674078</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C289" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C292" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C293" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C295" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C296" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3.741760745922589</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C300" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C301" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C302" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C304" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C308" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C310" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C311" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C313" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C314" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C316" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C318" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C319" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C321" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C322" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C323" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C324" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C325" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C330" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C332" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C333" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C334" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C335" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C336" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C337" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C338" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C339" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C340" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C341" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C342" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C343" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C344" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C345" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C346" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C347" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C348" t="n">
+        <v>3.453944272610252</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2.87829799936174</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C446" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C450" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C451" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C452" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C453" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C454" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C455" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C456" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C457" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C458" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C459" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C460" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C461" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C462" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C463" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C464" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C465" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C466" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C467" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C469" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C471" t="n">
+        <v>2.590468199425566</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C472" t="n">
+        <v>2.590468199425566</v>
       </c>
     </row>
   </sheetData>

--- a/TEST/EvaluationTable.xlsx
+++ b/TEST/EvaluationTable.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_test\IndependentStudy_ICANLAB\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E7854A-9621-4AA6-BBBC-D7935A7EEF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DB47D-0131-4831-9D1E-1864E05F0D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EvaluationTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">EvaluationTable!$A$2:$A$472</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">EvaluationTable!$B$2:$B$472</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">EvaluationTable!$C$2:$C$472</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">EvaluationTable!$D$2:$D$472</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -9551,9 +9545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>73818</xdr:rowOff>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9868,8 +9862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>

--- a/TEST/EvaluationTable.xlsx
+++ b/TEST/EvaluationTable.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.925</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>17.26938819745534</v>
+        <v>17.84503447070385</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9416666666666667</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>17.84503447070385</v>
+        <v>18.13286427064003</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>16.98156506083108</v>
+        <v>17.84505446063961</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.55</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.875</v>
+        <v>1.008333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>15.54246270433364</v>
+        <v>18.4206940705762</v>
       </c>
     </row>
     <row r="6">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.475</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8833333333333333</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>15.83027251433406</v>
+        <v>18.13286427064003</v>
       </c>
     </row>
     <row r="7">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.975</v>
       </c>
       <c r="D7" t="n">
-        <v>16.11809565095832</v>
+        <v>17.26940152407918</v>
       </c>
     </row>
     <row r="8">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.525</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>16.40591878758257</v>
+        <v>17.55721799739151</v>
       </c>
     </row>
     <row r="9">
@@ -489,10 +489,10 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>16.69374858751875</v>
+        <v>16.69376191414258</v>
       </c>
     </row>
     <row r="10">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.975</v>
       </c>
       <c r="D10" t="n">
-        <v>16.11811564089407</v>
+        <v>17.26940152407918</v>
       </c>
     </row>
     <row r="11">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.55</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>0.875</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>15.54246936764556</v>
+        <v>16.11811564089407</v>
       </c>
     </row>
     <row r="12">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.55</v>
+        <v>0.525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="D12" t="n">
-        <v>15.54245604102173</v>
+        <v>16.40593211420641</v>
       </c>
     </row>
     <row r="13">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>16.11810231427024</v>
+        <v>17.55722466070343</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.575</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C14" t="n">
-        <v>0.85</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>14.6789999577728</v>
+        <v>17.55722466070343</v>
       </c>
     </row>
     <row r="15">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>13.23989760127535</v>
+        <v>16.11810897758216</v>
       </c>
     </row>
     <row r="16">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>11.51296544484174</v>
+        <v>17.55722466070343</v>
       </c>
     </row>
     <row r="17">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D17" t="n">
-        <v>9.786059941655795</v>
+        <v>15.25464623102131</v>
       </c>
     </row>
     <row r="18">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.675</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>0.75</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>11.22516229815324</v>
+        <v>15.8302858409579</v>
       </c>
     </row>
     <row r="19">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>12.37643485471451</v>
+        <v>16.98157838745492</v>
       </c>
     </row>
     <row r="20">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.925</v>
       </c>
       <c r="D20" t="n">
-        <v>11.80079524477791</v>
+        <v>15.54246270433364</v>
       </c>
     </row>
     <row r="21">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C21" t="n">
-        <v>0.725</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>10.36169955159239</v>
+        <v>14.96682309439705</v>
       </c>
     </row>
     <row r="22">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.575</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="D22" t="n">
-        <v>11.51297210815366</v>
+        <v>14.67899995777279</v>
       </c>
     </row>
     <row r="23">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="C23" t="n">
-        <v>0.775</v>
+        <v>0.85</v>
       </c>
       <c r="D23" t="n">
-        <v>12.08861171809025</v>
+        <v>12.95206113802726</v>
       </c>
     </row>
     <row r="24">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="D24" t="n">
-        <v>11.80077525484216</v>
+        <v>13.81553054790003</v>
       </c>
     </row>
     <row r="25">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.675</v>
+        <v>0.625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="D25" t="n">
-        <v>11.22514230821748</v>
+        <v>12.95206113802726</v>
       </c>
     </row>
     <row r="26">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.725</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>10.36169288828047</v>
+        <v>13.52770741127577</v>
       </c>
     </row>
     <row r="27">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="D27" t="n">
-        <v>10.64950936159281</v>
+        <v>13.81553054790003</v>
       </c>
     </row>
     <row r="28">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="D28" t="n">
-        <v>10.93731917159323</v>
+        <v>13.81553054790003</v>
       </c>
     </row>
     <row r="29">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.675</v>
+        <v>0.6</v>
       </c>
       <c r="C29" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="D29" t="n">
-        <v>11.22515563484132</v>
+        <v>13.81553054790003</v>
       </c>
     </row>
     <row r="30">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D30" t="n">
-        <v>10.64949603496897</v>
+        <v>13.23988427465152</v>
       </c>
     </row>
     <row r="31">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C31" t="n">
-        <v>0.725</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D31" t="n">
-        <v>10.36168622496855</v>
+        <v>13.23988427465152</v>
       </c>
     </row>
     <row r="32">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C32" t="n">
-        <v>0.725</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>10.36168622496855</v>
+        <v>13.23988427465152</v>
       </c>
     </row>
     <row r="33">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D33" t="n">
-        <v>10.93733249821706</v>
+        <v>13.2398776113396</v>
       </c>
     </row>
     <row r="34">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C34" t="n">
-        <v>0.725</v>
+        <v>0.875</v>
       </c>
       <c r="D34" t="n">
-        <v>10.36167289834472</v>
+        <v>13.81552388458811</v>
       </c>
     </row>
     <row r="35">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D35" t="n">
-        <v>10.93731917159323</v>
+        <v>12.37641486477875</v>
       </c>
     </row>
     <row r="36">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D36" t="n">
-        <v>10.64949603496897</v>
+        <v>12.08859172815449</v>
       </c>
     </row>
     <row r="37">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="D37" t="n">
-        <v>11.80078858146599</v>
+        <v>12.08859172815449</v>
       </c>
     </row>
     <row r="38">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="D38" t="n">
-        <v>11.80078858146599</v>
+        <v>12.08859839146641</v>
       </c>
     </row>
     <row r="39">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D39" t="n">
-        <v>11.51296544484174</v>
+        <v>12.08859839146641</v>
       </c>
     </row>
     <row r="40">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="D40" t="n">
-        <v>10.07384976172046</v>
+        <v>12.08859839146641</v>
       </c>
     </row>
     <row r="41">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="D41" t="n">
-        <v>10.93731917159323</v>
+        <v>12.08859839146641</v>
       </c>
     </row>
     <row r="42">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D42" t="n">
-        <v>10.93731917159323</v>
+        <v>12.66424466471492</v>
       </c>
     </row>
     <row r="43">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.725</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D43" t="n">
-        <v>9.498203488471948</v>
+        <v>12.66424466471492</v>
       </c>
     </row>
     <row r="44">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D44" t="n">
-        <v>10.07384976172046</v>
+        <v>12.66424466471492</v>
       </c>
     </row>
     <row r="45">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D45" t="n">
-        <v>9.786033288408124</v>
+        <v>12.66424466471492</v>
       </c>
     </row>
     <row r="46">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D46" t="n">
-        <v>10.07387641496813</v>
+        <v>12.66424466471492</v>
       </c>
     </row>
     <row r="47">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.725</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D47" t="n">
-        <v>9.49823680503154</v>
+        <v>12.66424466471492</v>
       </c>
     </row>
     <row r="48">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D48" t="n">
-        <v>9.786053278343877</v>
+        <v>12.66424466471492</v>
       </c>
     </row>
     <row r="49">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="D49" t="n">
-        <v>8.922590531783028</v>
+        <v>12.95206780133918</v>
       </c>
     </row>
     <row r="50">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D50" t="n">
-        <v>8.922590531783028</v>
+        <v>12.37642152809067</v>
       </c>
     </row>
     <row r="51">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.725</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D51" t="n">
-        <v>9.49823680503154</v>
+        <v>12.66425132802684</v>
       </c>
     </row>
     <row r="52">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D52" t="n">
-        <v>9.210407005095366</v>
+        <v>12.37642152809067</v>
       </c>
     </row>
     <row r="53">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D53" t="n">
-        <v>9.210407005095366</v>
+        <v>12.37642819140259</v>
       </c>
     </row>
     <row r="54">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D54" t="n">
-        <v>8.922577205159191</v>
+        <v>12.08859839146641</v>
       </c>
     </row>
     <row r="55">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D55" t="n">
-        <v>8.922577205159191</v>
+        <v>12.08859839146641</v>
       </c>
     </row>
     <row r="56">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D56" t="n">
-        <v>8.922577205159191</v>
+        <v>12.08859839146641</v>
       </c>
     </row>
     <row r="57">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D57" t="n">
-        <v>8.922577205159191</v>
+        <v>12.08860505477833</v>
       </c>
     </row>
     <row r="58">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D58" t="n">
-        <v>8.922577205159191</v>
+        <v>12.08859839146641</v>
       </c>
     </row>
     <row r="59">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D59" t="n">
-        <v>8.92258386847111</v>
+        <v>12.08859839146641</v>
       </c>
     </row>
     <row r="60">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.75</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="C60" t="n">
-        <v>0.675</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D60" t="n">
-        <v>8.634754068534935</v>
+        <v>12.37642152809067</v>
       </c>
     </row>
     <row r="61">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D61" t="n">
-        <v>8.92258386847111</v>
+        <v>11.22512898159365</v>
       </c>
     </row>
     <row r="62">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D62" t="n">
-        <v>8.92258386847111</v>
+        <v>11.22512898159365</v>
       </c>
     </row>
     <row r="63">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D63" t="n">
-        <v>8.92258386847111</v>
+        <v>11.22512898159365</v>
       </c>
     </row>
     <row r="64">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D64" t="n">
-        <v>8.92258386847111</v>
+        <v>11.51295878152982</v>
       </c>
     </row>
     <row r="65">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.725</v>
+        <v>0.675</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D65" t="n">
-        <v>9.498230141719622</v>
+        <v>11.22512898159365</v>
       </c>
     </row>
     <row r="66">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D66" t="n">
-        <v>8.92258386847111</v>
+        <v>11.22512898159365</v>
       </c>
     </row>
     <row r="67">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D67" t="n">
-        <v>8.92258386847111</v>
+        <v>11.22513564490557</v>
       </c>
     </row>
     <row r="68">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.75</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C68" t="n">
-        <v>0.675</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D68" t="n">
-        <v>8.634760731846853</v>
+        <v>10.93731917159323</v>
       </c>
     </row>
     <row r="69">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.75</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="C69" t="n">
-        <v>0.675</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D69" t="n">
-        <v>8.634760731846853</v>
+        <v>10.64948937165705</v>
       </c>
     </row>
     <row r="70">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D70" t="n">
-        <v>8.92258386847111</v>
+        <v>10.93731250828131</v>
       </c>
     </row>
     <row r="71">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D71" t="n">
-        <v>9.210407005095366</v>
+        <v>10.07384309840854</v>
       </c>
     </row>
     <row r="72">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D72" t="n">
-        <v>8.922577205159191</v>
+        <v>9.786019961784286</v>
       </c>
     </row>
     <row r="73">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D73" t="n">
-        <v>8.922577205159191</v>
+        <v>9.786019961784286</v>
       </c>
     </row>
     <row r="74">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D74" t="n">
-        <v>8.922577205159191</v>
+        <v>9.786019961784286</v>
       </c>
     </row>
     <row r="75">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D75" t="n">
-        <v>8.922577205159191</v>
+        <v>10.07384309840854</v>
       </c>
     </row>
     <row r="76">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D76" t="n">
-        <v>8.922577205159191</v>
+        <v>10.07384309840854</v>
       </c>
     </row>
     <row r="77">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="C77" t="n">
         <v>0.7666666666666667</v>
       </c>
-      <c r="C77" t="n">
-        <v>0.6583333333333333</v>
-      </c>
       <c r="D77" t="n">
-        <v>8.059107795286424</v>
+        <v>10.07384309840854</v>
       </c>
     </row>
     <row r="78">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D78" t="n">
-        <v>7.483468185349831</v>
+        <v>10.07384309840854</v>
       </c>
     </row>
     <row r="79">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D79" t="n">
-        <v>7.483468185349831</v>
+        <v>10.07384976172046</v>
       </c>
     </row>
     <row r="80">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="D80" t="n">
-        <v>7.483468185349831</v>
+        <v>9.210380351847691</v>
       </c>
     </row>
     <row r="81">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="D81" t="n">
-        <v>7.483461522037913</v>
+        <v>9.210380351847691</v>
       </c>
     </row>
     <row r="82">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D82" t="n">
-        <v>6.619998775477064</v>
+        <v>9.498203488471948</v>
       </c>
     </row>
     <row r="83">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D83" t="n">
-        <v>6.332175638852808</v>
+        <v>9.498203488471948</v>
       </c>
     </row>
     <row r="84">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D84" t="n">
-        <v>5.756529365604297</v>
+        <v>9.498203488471948</v>
       </c>
     </row>
     <row r="85">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D85" t="n">
-        <v>5.756529365604297</v>
+        <v>9.498203488471948</v>
       </c>
     </row>
     <row r="86">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="D86" t="n">
-        <v>5.756529365604297</v>
+        <v>9.210380351847691</v>
       </c>
     </row>
     <row r="87">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="D87" t="n">
-        <v>5.756529365604297</v>
+        <v>8.634734078599179</v>
       </c>
     </row>
     <row r="88">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="D88" t="n">
-        <v>5.756529365604297</v>
+        <v>8.634734078599179</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="D89" t="n">
-        <v>5.756529365604297</v>
+        <v>8.634734078599179</v>
       </c>
     </row>
     <row r="90">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D90" t="n">
-        <v>5.756529365604297</v>
+        <v>8.922557215223437</v>
       </c>
     </row>
     <row r="91">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D91" t="n">
-        <v>5.756529365604297</v>
+        <v>8.922557215223437</v>
       </c>
     </row>
     <row r="92">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D92" t="n">
-        <v>5.756529365604297</v>
+        <v>8.922557215223437</v>
       </c>
     </row>
     <row r="93">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="D93" t="n">
-        <v>6.332175638852807</v>
+        <v>8.634734078599179</v>
       </c>
     </row>
     <row r="94">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="D94" t="n">
-        <v>5.756529365604297</v>
+        <v>8.634734078599179</v>
       </c>
     </row>
     <row r="95">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D95" t="n">
-        <v>5.756529365604297</v>
+        <v>7.483441532102158</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D96" t="n">
-        <v>6.332175638852807</v>
+        <v>8.059087805350668</v>
       </c>
     </row>
     <row r="97">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D97" t="n">
-        <v>6.332175638852807</v>
+        <v>8.059087805350668</v>
       </c>
     </row>
     <row r="98">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D98" t="n">
-        <v>6.332175638852807</v>
+        <v>8.059087805350668</v>
       </c>
     </row>
     <row r="99">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D99" t="n">
-        <v>6.33216897554089</v>
+        <v>8.059087805350668</v>
       </c>
     </row>
     <row r="100">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D100" t="n">
-        <v>6.33216897554089</v>
+        <v>8.346917605286844</v>
       </c>
     </row>
     <row r="101">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="D101" t="n">
-        <v>6.33216897554089</v>
+        <v>8.634740741911099</v>
       </c>
     </row>
     <row r="102">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.825</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D102" t="n">
-        <v>6.044339175604716</v>
+        <v>8.346917605286844</v>
       </c>
     </row>
     <row r="103">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.825</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D103" t="n">
-        <v>6.044339175604716</v>
+        <v>8.346917605286844</v>
       </c>
     </row>
     <row r="104">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6</v>
+        <v>0.725</v>
       </c>
       <c r="D104" t="n">
-        <v>6.044339175604716</v>
+        <v>8.634740741911099</v>
       </c>
     </row>
     <row r="105">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="D105" t="n">
-        <v>5.756522702292378</v>
+        <v>8.634740741911099</v>
       </c>
     </row>
     <row r="106">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D106" t="n">
-        <v>5.756522702292378</v>
+        <v>8.922563878535355</v>
       </c>
     </row>
     <row r="107">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D107" t="n">
-        <v>5.468699565668123</v>
+        <v>8.922570541847273</v>
       </c>
     </row>
     <row r="108">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="D108" t="n">
-        <v>5.468699565668123</v>
+        <v>9.210393678471528</v>
       </c>
     </row>
     <row r="109">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="D109" t="n">
-        <v>5.468699565668123</v>
+        <v>9.210387015159609</v>
       </c>
     </row>
     <row r="110">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.85</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C110" t="n">
-        <v>0.575</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D110" t="n">
-        <v>5.180876429043868</v>
+        <v>8.922570541847273</v>
       </c>
     </row>
     <row r="111">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.85</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C111" t="n">
-        <v>0.575</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D111" t="n">
-        <v>5.180876429043868</v>
+        <v>8.346924268598762</v>
       </c>
     </row>
     <row r="112">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="C112" t="n">
-        <v>0.575</v>
+        <v>0.725</v>
       </c>
       <c r="D112" t="n">
-        <v>5.180876429043868</v>
+        <v>8.634747405223017</v>
       </c>
     </row>
     <row r="113">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D113" t="n">
-        <v>4.605230155795356</v>
+        <v>8.922570541847273</v>
       </c>
     </row>
     <row r="114">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D114" t="n">
-        <v>4.605230155795356</v>
+        <v>8.346924268598762</v>
       </c>
     </row>
     <row r="115">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D115" t="n">
-        <v>4.605230155795356</v>
+        <v>7.771277995350249</v>
       </c>
     </row>
     <row r="116">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D116" t="n">
-        <v>4.893053292419612</v>
+        <v>7.771277995350249</v>
       </c>
     </row>
     <row r="117">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.85</v>
+        <v>0.775</v>
       </c>
       <c r="C117" t="n">
-        <v>0.575</v>
+        <v>0.7</v>
       </c>
       <c r="D117" t="n">
-        <v>5.180876429043868</v>
+        <v>7.771277995350249</v>
       </c>
     </row>
     <row r="118">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.85</v>
+        <v>0.775</v>
       </c>
       <c r="C118" t="n">
-        <v>0.575</v>
+        <v>0.7</v>
       </c>
       <c r="D118" t="n">
-        <v>5.180876429043868</v>
+        <v>7.771277995350249</v>
       </c>
     </row>
     <row r="119">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.85</v>
+        <v>0.775</v>
       </c>
       <c r="C119" t="n">
-        <v>0.575</v>
+        <v>0.7</v>
       </c>
       <c r="D119" t="n">
-        <v>5.180876429043868</v>
+        <v>7.771277995350249</v>
       </c>
     </row>
     <row r="120">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.85</v>
+        <v>0.775</v>
       </c>
       <c r="C120" t="n">
-        <v>0.575</v>
+        <v>0.7</v>
       </c>
       <c r="D120" t="n">
-        <v>5.180876429043868</v>
+        <v>7.771277995350249</v>
       </c>
     </row>
     <row r="121">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.85</v>
+        <v>0.775</v>
       </c>
       <c r="C121" t="n">
-        <v>0.575</v>
+        <v>0.7</v>
       </c>
       <c r="D121" t="n">
-        <v>5.180876429043868</v>
+        <v>7.771277995350249</v>
       </c>
     </row>
     <row r="122">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.85</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C122" t="n">
-        <v>0.575</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D122" t="n">
-        <v>5.180876429043868</v>
+        <v>7.195631722101738</v>
       </c>
     </row>
     <row r="123">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.85</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="C123" t="n">
-        <v>0.575</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D123" t="n">
-        <v>5.180876429043868</v>
+        <v>6.619985448853227</v>
       </c>
     </row>
     <row r="124">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.85</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="C124" t="n">
-        <v>0.575</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D124" t="n">
-        <v>5.180876429043868</v>
+        <v>6.619985448853227</v>
       </c>
     </row>
     <row r="125">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="C125" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D125" t="n">
-        <v>5.180876429043868</v>
+        <v>6.044339175604716</v>
       </c>
     </row>
     <row r="126">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.85</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C126" t="n">
-        <v>0.575</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D126" t="n">
-        <v>5.180876429043868</v>
+        <v>6.332162312228972</v>
       </c>
     </row>
     <row r="127">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.85</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C127" t="n">
-        <v>0.575</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D127" t="n">
-        <v>5.180876429043868</v>
+        <v>6.332162312228972</v>
       </c>
     </row>
     <row r="128">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="C128" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D128" t="n">
-        <v>5.180876429043868</v>
+        <v>6.044345838916635</v>
       </c>
     </row>
     <row r="129">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="C129" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D129" t="n">
-        <v>5.180876429043868</v>
+        <v>6.044345838916635</v>
       </c>
     </row>
     <row r="130">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="C130" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D130" t="n">
-        <v>5.180876429043868</v>
+        <v>6.044345838916635</v>
       </c>
     </row>
     <row r="131">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="C131" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D131" t="n">
-        <v>5.180876429043868</v>
+        <v>6.044345838916635</v>
       </c>
     </row>
     <row r="132">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="C132" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D132" t="n">
-        <v>5.180876429043868</v>
+        <v>6.044345838916635</v>
       </c>
     </row>
     <row r="133">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.85</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C133" t="n">
-        <v>0.575</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D133" t="n">
-        <v>5.180876429043868</v>
+        <v>5.75651603898046</v>
       </c>
     </row>
     <row r="134">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D134" t="n">
-        <v>5.468706228980041</v>
+        <v>5.75651603898046</v>
       </c>
     </row>
     <row r="135">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D135" t="n">
-        <v>5.468706228980041</v>
+        <v>6.044339175604716</v>
       </c>
     </row>
     <row r="136">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D136" t="n">
-        <v>5.468706228980041</v>
+        <v>5.75651603898046</v>
       </c>
     </row>
     <row r="137">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D137" t="n">
-        <v>5.468706228980041</v>
+        <v>5.75651603898046</v>
       </c>
     </row>
     <row r="138">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D138" t="n">
-        <v>5.468706228980041</v>
+        <v>5.75651603898046</v>
       </c>
     </row>
     <row r="139">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D139" t="n">
-        <v>5.468706228980041</v>
+        <v>5.75651603898046</v>
       </c>
     </row>
     <row r="140">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D140" t="n">
-        <v>5.468706228980041</v>
+        <v>6.044339175604716</v>
       </c>
     </row>
     <row r="141">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D141" t="n">
-        <v>5.756529365604298</v>
+        <v>6.332162312228972</v>
       </c>
     </row>
     <row r="142">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D142" t="n">
-        <v>5.756529365604298</v>
+        <v>6.332162312228972</v>
       </c>
     </row>
     <row r="143">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.85</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C143" t="n">
-        <v>0.575</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D143" t="n">
-        <v>5.180883092355786</v>
+        <v>6.332162312228972</v>
       </c>
     </row>
     <row r="144">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.85</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C144" t="n">
-        <v>0.575</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D144" t="n">
-        <v>5.180883092355786</v>
+        <v>6.332162312228972</v>
       </c>
     </row>
     <row r="145">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.85</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C145" t="n">
-        <v>0.575</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D145" t="n">
-        <v>5.180883092355786</v>
+        <v>7.483454858725994</v>
       </c>
     </row>
     <row r="146">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.85</v>
+        <v>0.775</v>
       </c>
       <c r="C146" t="n">
-        <v>0.575</v>
+        <v>0.7</v>
       </c>
       <c r="D146" t="n">
-        <v>5.180883092355786</v>
+        <v>7.77127799535025</v>
       </c>
     </row>
     <row r="147">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.85</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C147" t="n">
-        <v>0.575</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D147" t="n">
-        <v>5.180883092355786</v>
+        <v>7.195631722101738</v>
       </c>
     </row>
     <row r="148">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D148" t="n">
-        <v>4.89305995573153</v>
+        <v>7.483454858725993</v>
       </c>
     </row>
     <row r="149">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D149" t="n">
-        <v>4.89305995573153</v>
+        <v>7.77127799535025</v>
       </c>
     </row>
     <row r="150">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D150" t="n">
-        <v>4.89305995573153</v>
+        <v>7.77127799535025</v>
       </c>
     </row>
     <row r="151">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D151" t="n">
-        <v>4.89305995573153</v>
+        <v>7.771271332038331</v>
       </c>
     </row>
     <row r="152">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D152" t="n">
-        <v>4.89305995573153</v>
+        <v>7.771271332038331</v>
       </c>
     </row>
     <row r="153">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="D153" t="n">
-        <v>5.468706228980041</v>
+        <v>7.771271332038331</v>
       </c>
     </row>
     <row r="154">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D154" t="n">
-        <v>4.605236819107275</v>
+        <v>7.771271332038331</v>
       </c>
     </row>
     <row r="155">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D155" t="n">
-        <v>5.468706228980041</v>
+        <v>7.483448195414075</v>
       </c>
     </row>
     <row r="156">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D156" t="n">
-        <v>5.468706228980041</v>
+        <v>7.483448195414075</v>
       </c>
     </row>
     <row r="157">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C157" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D157" t="n">
-        <v>5.468706228980041</v>
+        <v>7.483448195414075</v>
       </c>
     </row>
     <row r="158">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D158" t="n">
-        <v>5.468706228980041</v>
+        <v>7.483448195414075</v>
       </c>
     </row>
     <row r="159">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D159" t="n">
-        <v>5.468706228980041</v>
+        <v>7.19562505878982</v>
       </c>
     </row>
     <row r="160">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D160" t="n">
-        <v>5.468706228980041</v>
+        <v>7.19562505878982</v>
       </c>
     </row>
     <row r="161">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.675</v>
       </c>
       <c r="D161" t="n">
-        <v>5.468706228980041</v>
+        <v>6.907801922165564</v>
       </c>
     </row>
     <row r="162">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C162" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D162" t="n">
-        <v>5.468706228980041</v>
+        <v>7.19562505878982</v>
       </c>
     </row>
     <row r="163">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D163" t="n">
-        <v>5.468706228980041</v>
+        <v>7.19562505878982</v>
       </c>
     </row>
     <row r="164">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.85</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C164" t="n">
-        <v>0.575</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D164" t="n">
-        <v>5.180883092355786</v>
+        <v>7.19562505878982</v>
       </c>
     </row>
     <row r="165">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="C165" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D165" t="n">
-        <v>5.180883092355786</v>
+        <v>6.044332512292797</v>
       </c>
     </row>
     <row r="166">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.85</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C166" t="n">
-        <v>0.575</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D166" t="n">
-        <v>5.180883092355786</v>
+        <v>6.332155648917054</v>
       </c>
     </row>
     <row r="167">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C167" t="n">
-        <v>0.55</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D167" t="n">
-        <v>4.317420345794938</v>
+        <v>5.756509375668541</v>
       </c>
     </row>
     <row r="168">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.875</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C168" t="n">
-        <v>0.55</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D168" t="n">
-        <v>4.317420345794938</v>
+        <v>5.468686239044286</v>
       </c>
     </row>
     <row r="169">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.875</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C169" t="n">
-        <v>0.55</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D169" t="n">
-        <v>4.317420345794938</v>
+        <v>5.468686239044286</v>
       </c>
     </row>
     <row r="170">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.875</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C170" t="n">
-        <v>0.55</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D170" t="n">
-        <v>4.317420345794938</v>
+        <v>5.468686239044286</v>
       </c>
     </row>
     <row r="171">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.875</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C171" t="n">
-        <v>0.55</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D171" t="n">
-        <v>4.317420345794938</v>
+        <v>5.468686239044286</v>
       </c>
     </row>
     <row r="172">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.875</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C172" t="n">
-        <v>0.55</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D172" t="n">
-        <v>4.317420345794938</v>
+        <v>5.468686239044286</v>
       </c>
     </row>
     <row r="173">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.875</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C173" t="n">
-        <v>0.55</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D173" t="n">
-        <v>4.317420345794938</v>
+        <v>5.468686239044286</v>
       </c>
     </row>
     <row r="174">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C174" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D174" t="n">
-        <v>4.029590545858763</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="175">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C175" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D175" t="n">
-        <v>4.029590545858763</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="176">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C176" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D176" t="n">
-        <v>4.029590545858763</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="177">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C177" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D177" t="n">
-        <v>4.029590545858763</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="178">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C178" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D178" t="n">
-        <v>4.029590545858763</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="179">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D179" t="n">
-        <v>4.029590545858763</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="180">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C180" t="n">
-        <v>0.55</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D180" t="n">
-        <v>4.317420345794938</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="181">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C181" t="n">
-        <v>0.55</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D181" t="n">
-        <v>4.317420345794938</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="182">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C182" t="n">
-        <v>0.55</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D182" t="n">
-        <v>4.317420345794938</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="183">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C183" t="n">
-        <v>0.55</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D183" t="n">
-        <v>4.317420345794938</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="184">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C184" t="n">
-        <v>0.55</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D184" t="n">
-        <v>4.317420345794938</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="185">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C185" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D185" t="n">
-        <v>4.605243482419193</v>
+        <v>4.893039965795775</v>
       </c>
     </row>
     <row r="186">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C186" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D186" t="n">
-        <v>4.605243482419193</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="187">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C187" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D187" t="n">
-        <v>4.605243482419193</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="188">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D188" t="n">
-        <v>4.893066619043449</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="189">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C189" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D189" t="n">
-        <v>4.893066619043449</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="190">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D190" t="n">
-        <v>4.893066619043449</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="191">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="C191" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D191" t="n">
-        <v>5.180889755667704</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="192">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="C192" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D192" t="n">
-        <v>5.180889755667704</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="193">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="C193" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D193" t="n">
-        <v>5.180889755667704</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="194">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C194" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D194" t="n">
-        <v>5.468712892291959</v>
+        <v>4.605203502547683</v>
       </c>
     </row>
     <row r="195">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D195" t="n">
-        <v>5.468712892291959</v>
+        <v>4.893026639171938</v>
       </c>
     </row>
     <row r="196">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.85</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C196" t="n">
-        <v>0.575</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D196" t="n">
-        <v>5.180889755667704</v>
+        <v>4.893026639171938</v>
       </c>
     </row>
     <row r="197">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.85</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C197" t="n">
-        <v>0.575</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D197" t="n">
-        <v>5.180889755667704</v>
+        <v>4.893026639171938</v>
       </c>
     </row>
     <row r="198">
@@ -3135,10 +3135,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C198" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D198" t="n">
-        <v>4.893066619043449</v>
+        <v>4.893026639171938</v>
       </c>
     </row>
     <row r="199">
@@ -3149,10 +3149,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C199" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D199" t="n">
-        <v>4.893066619043449</v>
+        <v>4.893026639171938</v>
       </c>
     </row>
     <row r="200">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C200" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D200" t="n">
-        <v>4.893066619043449</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="201">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C201" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D201" t="n">
-        <v>4.893066619043449</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="202">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C202" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D202" t="n">
-        <v>4.893066619043449</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="203">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C203" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D203" t="n">
-        <v>4.893066619043449</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="204">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="C204" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D204" t="n">
-        <v>5.180889755667704</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="205">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="C205" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D205" t="n">
-        <v>5.180889755667704</v>
+        <v>4.317380365923428</v>
       </c>
     </row>
     <row r="206">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.85</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C206" t="n">
-        <v>0.575</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D206" t="n">
-        <v>5.180889755667704</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="207">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.85</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C207" t="n">
-        <v>0.575</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D207" t="n">
-        <v>5.180889755667704</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="208">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.85</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C208" t="n">
-        <v>0.575</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D208" t="n">
-        <v>5.180889755667704</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="209">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.85</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C209" t="n">
-        <v>0.575</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D209" t="n">
-        <v>5.180889755667704</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="210">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.85</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C210" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D210" t="n">
-        <v>5.180889755667704</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="211">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.85</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C211" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D211" t="n">
-        <v>5.180889755667704</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="212">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.85</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C212" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D212" t="n">
-        <v>5.180889755667704</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="213">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.85</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C213" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D213" t="n">
-        <v>5.180889755667704</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="214">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.85</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C214" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D214" t="n">
-        <v>5.180889755667704</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="215">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.85</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C215" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D215" t="n">
-        <v>5.180889755667704</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="216">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.85</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C216" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D216" t="n">
-        <v>5.180889755667704</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="217">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C217" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D217" t="n">
-        <v>4.893066619043449</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="218">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D218" t="n">
-        <v>4.893066619043449</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="219">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C219" t="n">
         <v>0.5666666666666667</v>
       </c>
       <c r="D219" t="n">
-        <v>4.893066619043449</v>
+        <v>3.166094482738323</v>
       </c>
     </row>
     <row r="220">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C220" t="n">
         <v>0.5666666666666667</v>
       </c>
       <c r="D220" t="n">
-        <v>4.893066619043449</v>
+        <v>3.166094482738323</v>
       </c>
     </row>
     <row r="221">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C221" t="n">
         <v>0.5666666666666667</v>
       </c>
       <c r="D221" t="n">
-        <v>4.893066619043449</v>
+        <v>3.166094482738323</v>
       </c>
     </row>
     <row r="222">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C222" t="n">
         <v>0.5666666666666667</v>
       </c>
       <c r="D222" t="n">
-        <v>4.893066619043449</v>
+        <v>3.166094482738323</v>
       </c>
     </row>
     <row r="223">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C223" t="n">
         <v>0.5666666666666667</v>
       </c>
       <c r="D223" t="n">
-        <v>4.893066619043449</v>
+        <v>3.166094482738323</v>
       </c>
     </row>
     <row r="224">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C224" t="n">
         <v>0.5666666666666667</v>
       </c>
       <c r="D224" t="n">
-        <v>4.893066619043449</v>
+        <v>3.166094482738323</v>
       </c>
     </row>
     <row r="225">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D225" t="n">
-        <v>4.893066619043449</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="226">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C226" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D226" t="n">
-        <v>4.893066619043449</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="227">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D227" t="n">
-        <v>4.893066619043449</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="228">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D228" t="n">
-        <v>4.893066619043449</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="229">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D229" t="n">
-        <v>4.893066619043449</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="230">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C230" t="n">
         <v>0.5583333333333333</v>
       </c>
       <c r="D230" t="n">
-        <v>4.605243482419193</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="231">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C231" t="n">
         <v>0.5583333333333333</v>
       </c>
       <c r="D231" t="n">
-        <v>4.605243482419193</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="232">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C232" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D232" t="n">
-        <v>4.029597209170681</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="233">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C233" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D233" t="n">
-        <v>4.029597209170681</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="234">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C234" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D234" t="n">
-        <v>4.029597209170681</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="235">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D235" t="n">
-        <v>4.029597209170681</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="236">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D236" t="n">
-        <v>4.029597209170681</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="237">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D237" t="n">
-        <v>4.029597209170681</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="238">
@@ -3695,10 +3695,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C238" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D238" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="239">
@@ -3709,10 +3709,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C239" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D239" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="240">
@@ -3723,10 +3723,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C240" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D240" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="241">
@@ -3737,10 +3737,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D241" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="242">
@@ -3751,10 +3751,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C242" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D242" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="243">
@@ -3765,10 +3765,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C243" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D243" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="244">
@@ -3779,10 +3779,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C244" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D244" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="245">
@@ -3793,10 +3793,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C245" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D245" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="246">
@@ -3807,10 +3807,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C246" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D246" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="247">
@@ -3821,10 +3821,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C247" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D247" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="248">
@@ -3835,10 +3835,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D248" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="249">
@@ -3849,10 +3849,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C249" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D249" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="250">
@@ -3863,10 +3863,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D250" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="251">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C251" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D251" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="252">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C252" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D252" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="253">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C253" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D253" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="254">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D254" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="255">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C255" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D255" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="256">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C256" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D256" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="257">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D257" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="258">
@@ -3975,10 +3975,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C258" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D258" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741747419298753</v>
       </c>
     </row>
     <row r="259">
@@ -3989,10 +3989,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C259" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D259" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741747419298753</v>
       </c>
     </row>
     <row r="260">
@@ -4003,10 +4003,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C260" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D260" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741747419298753</v>
       </c>
     </row>
     <row r="261">
@@ -4017,10 +4017,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C261" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D261" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741747419298753</v>
       </c>
     </row>
     <row r="262">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C262" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D262" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="263">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C263" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D263" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="264">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C264" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D264" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="265">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C265" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D265" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="266">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C266" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D266" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="267">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C267" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D267" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="268">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C268" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D268" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="269">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C269" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D269" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="270">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C270" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D270" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="271">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C271" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D271" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="272">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C272" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D272" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="273">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C273" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D273" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="274">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C274" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D274" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="275">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C275" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D275" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="276">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C276" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D276" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317393692547264</v>
       </c>
     </row>
     <row r="277">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C277" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D277" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="278">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C278" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D278" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317393692547264</v>
       </c>
     </row>
     <row r="279">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C279" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D279" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317393692547264</v>
       </c>
     </row>
     <row r="280">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C280" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D280" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="281">
@@ -4297,10 +4297,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C281" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D281" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741747419298753</v>
       </c>
     </row>
     <row r="282">
@@ -4311,10 +4311,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C282" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D282" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741747419298753</v>
       </c>
     </row>
     <row r="283">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C283" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D283" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="284">
@@ -4339,10 +4339,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C284" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D284" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741747419298753</v>
       </c>
     </row>
     <row r="285">
@@ -4353,10 +4353,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C285" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D285" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741747419298753</v>
       </c>
     </row>
     <row r="286">
@@ -4367,10 +4367,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C286" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D286" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741747419298753</v>
       </c>
     </row>
     <row r="287">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C287" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D287" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="288">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C288" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D288" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317393692547264</v>
       </c>
     </row>
     <row r="289">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C289" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D289" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317393692547264</v>
       </c>
     </row>
     <row r="290">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C290" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D290" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317393692547264</v>
       </c>
     </row>
     <row r="291">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C291" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D291" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317393692547264</v>
       </c>
     </row>
     <row r="292">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C292" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D292" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317393692547264</v>
       </c>
     </row>
     <row r="293">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C293" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D293" t="n">
-        <v>3.741774072546426</v>
+        <v>4.029570555923008</v>
       </c>
     </row>
     <row r="294">
@@ -4479,10 +4479,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C294" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D294" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="295">
@@ -4493,10 +4493,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C295" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D295" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="296">
@@ -4507,10 +4507,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C296" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D296" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="297">
@@ -4521,10 +4521,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C297" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D297" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="298">
@@ -4535,10 +4535,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C298" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D298" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="299">
@@ -4549,10 +4549,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C299" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D299" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="300">
@@ -4563,10 +4563,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C300" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D300" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="301">
@@ -4577,10 +4577,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C301" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D301" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="302">
@@ -4591,10 +4591,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C302" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D302" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="303">
@@ -4605,10 +4605,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C303" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D303" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="304">
@@ -4619,10 +4619,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C304" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D304" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="305">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C305" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D305" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317387029235346</v>
       </c>
     </row>
     <row r="306">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C306" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D306" t="n">
-        <v>3.741774072546426</v>
+        <v>4.317387029235346</v>
       </c>
     </row>
     <row r="307">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C307" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D307" t="n">
-        <v>3.741774072546426</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="308">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C308" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D308" t="n">
-        <v>3.741774072546426</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="309">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C309" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D309" t="n">
-        <v>3.741774072546426</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="310">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C310" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D310" t="n">
-        <v>3.741774072546426</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="311">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C311" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D311" t="n">
-        <v>3.741774072546426</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="312">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C312" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D312" t="n">
-        <v>3.741774072546426</v>
+        <v>4.605210165859601</v>
       </c>
     </row>
     <row r="313">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C313" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D313" t="n">
-        <v>3.741774072546426</v>
+        <v>4.893033302483857</v>
       </c>
     </row>
     <row r="314">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C314" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D314" t="n">
-        <v>3.741774072546426</v>
+        <v>4.893033302483857</v>
       </c>
     </row>
     <row r="315">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C315" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D315" t="n">
-        <v>3.741774072546426</v>
+        <v>4.893033302483857</v>
       </c>
     </row>
     <row r="316">
@@ -4787,10 +4787,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C316" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D316" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="317">
@@ -4801,10 +4801,10 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="C317" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D317" t="n">
-        <v>3.741774072546426</v>
+        <v>3.741740755986834</v>
       </c>
     </row>
     <row r="318">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C318" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D318" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="319">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C319" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D319" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="320">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C320" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D320" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="321">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C321" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D321" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="322">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C322" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D322" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="323">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C323" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D323" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="324">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C324" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D324" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="325">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C325" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D325" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="326">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C326" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D326" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="327">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C327" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D327" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="328">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C328" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D328" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="329">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C329" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D329" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="330">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C330" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D330" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="331">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C331" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D331" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="332">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C332" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D332" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="333">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C333" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D333" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="334">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C334" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D334" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="335">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C335" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D335" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="336">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C336" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D336" t="n">
-        <v>3.741774072546426</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="337">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C337" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D337" t="n">
-        <v>3.166127799297915</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="338">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C338" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D338" t="n">
-        <v>3.166127799297915</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="339">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C339" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D339" t="n">
-        <v>3.166127799297915</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="340">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C340" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D340" t="n">
-        <v>3.166127799297915</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="341">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C341" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D341" t="n">
-        <v>3.166127799297915</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="342">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C342" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D342" t="n">
-        <v>3.166127799297915</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="343">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C343" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D343" t="n">
-        <v>3.166127799297915</v>
+        <v>3.453917619362578</v>
       </c>
     </row>
     <row r="344">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C344" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D344" t="n">
-        <v>3.166127799297915</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="345">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C345" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D345" t="n">
-        <v>3.166127799297915</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="346">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C346" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D346" t="n">
-        <v>3.166127799297915</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="347">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C347" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D347" t="n">
-        <v>3.166127799297915</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="348">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C348" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D348" t="n">
-        <v>3.166127799297915</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="349">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C349" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D349" t="n">
-        <v>3.166127799297915</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="350">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C350" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D350" t="n">
-        <v>3.166127799297915</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="351">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C351" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D351" t="n">
-        <v>3.166127799297915</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="352">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C352" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D352" t="n">
-        <v>3.166127799297915</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="353">
@@ -5305,10 +5305,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C353" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D353" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="354">
@@ -5319,10 +5319,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C354" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D354" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="355">
@@ -5333,10 +5333,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C355" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D355" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878271346114067</v>
       </c>
     </row>
     <row r="356">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C356" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D356" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="357">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C357" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D357" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="358">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C358" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D358" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="359">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C359" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D359" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="360">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C360" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D360" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="361">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C361" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D361" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="362">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C362" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D362" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="363">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C363" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D363" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="364">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C364" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D364" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="365">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C365" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D365" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="366">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C366" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D366" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="367">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="C367" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D367" t="n">
-        <v>2.87829799936174</v>
+        <v>3.166101146050242</v>
       </c>
     </row>
     <row r="368">
@@ -5515,10 +5515,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C368" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D368" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878278009425985</v>
       </c>
     </row>
     <row r="369">
@@ -5529,10 +5529,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C369" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D369" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878278009425985</v>
       </c>
     </row>
     <row r="370">
@@ -5543,10 +5543,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C370" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D370" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878278009425985</v>
       </c>
     </row>
     <row r="371">
@@ -5557,10 +5557,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C371" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D371" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878278009425985</v>
       </c>
     </row>
     <row r="372">
@@ -5571,10 +5571,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C372" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D372" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878278009425985</v>
       </c>
     </row>
     <row r="373">
@@ -5585,10 +5585,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C373" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D373" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878278009425985</v>
       </c>
     </row>
     <row r="374">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C374" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D374" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="375">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C375" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D375" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C376" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D376" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="377">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C377" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D377" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="378">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C378" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D378" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="379">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C379" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D379" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="380">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C380" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D380" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="381">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C381" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D381" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="382">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C382" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D382" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="383">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C383" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D383" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="384">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C384" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D384" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="385">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C385" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D385" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="386">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C386" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D386" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="387">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C387" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D387" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="388">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C388" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D388" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="389">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C389" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D389" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="390">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C390" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D390" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="391">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C391" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D391" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="392">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C392" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D392" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="393">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C393" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D393" t="n">
-        <v>2.87829799936174</v>
+        <v>2.59045487280173</v>
       </c>
     </row>
     <row r="394">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C394" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D394" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="395">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C395" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D395" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="396">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C396" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D396" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="397">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C397" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D397" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="398">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C398" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D398" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="399">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C399" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D399" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="400">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C400" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D400" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="401">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C401" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D401" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="402">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C402" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D402" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="403">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C403" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D403" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="404">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C404" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D404" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="405">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C405" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D405" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="406">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C406" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D406" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="407">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C407" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D407" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="408">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C408" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D408" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="409">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C409" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D409" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="410">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C410" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D410" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="411">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C411" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D411" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="412">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C412" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D412" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="413">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C413" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D413" t="n">
-        <v>2.87829799936174</v>
+        <v>2.302631736177474</v>
       </c>
     </row>
     <row r="414">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C414" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D414" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="415">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C415" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D415" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="416">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C416" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D416" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="417">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C417" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D417" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="418">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C418" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D418" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="419">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C419" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D419" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="420">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C420" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D420" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="421">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C421" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D421" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="422">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C422" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D422" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="423">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C423" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D423" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="424">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C424" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D424" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="425">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C425" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D425" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="426">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C426" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D426" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="427">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C427" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D427" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="428">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C428" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D428" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="429">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C429" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D429" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="430">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C430" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D430" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="431">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C431" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D431" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="432">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C432" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D432" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="433">
@@ -6425,10 +6425,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C433" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D433" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="434">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C434" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D434" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="435">
@@ -6453,10 +6453,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C435" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D435" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="436">
@@ -6467,10 +6467,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C436" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D436" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="437">
@@ -6481,10 +6481,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C437" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D437" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="438">
@@ -6495,10 +6495,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C438" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D438" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="439">
@@ -6509,10 +6509,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C439" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D439" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="440">
@@ -6523,10 +6523,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C440" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D440" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="441">
@@ -6537,10 +6537,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C441" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D441" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="442">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C442" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D442" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="443">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C443" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D443" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="444">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C444" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D444" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="445">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C445" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D445" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="446">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C446" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D446" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="447">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C447" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D447" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="448">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C448" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D448" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="449">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="C449" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="D449" t="n">
-        <v>2.87829799936174</v>
+        <v>2.590461536113648</v>
       </c>
     </row>
     <row r="450">
@@ -6663,10 +6663,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C450" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D450" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="451">
@@ -6677,10 +6677,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C451" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D451" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="452">
@@ -6691,10 +6691,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C452" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D452" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="453">
@@ -6705,10 +6705,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C453" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D453" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="454">
@@ -6719,10 +6719,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C454" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D454" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="455">
@@ -6733,10 +6733,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C455" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D455" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="456">
@@ -6747,10 +6747,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C456" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D456" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="457">
@@ -6761,10 +6761,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C457" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D457" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="458">
@@ -6775,10 +6775,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C458" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D458" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="459">
@@ -6789,10 +6789,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C459" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D459" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="460">
@@ -6803,10 +6803,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C460" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D460" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="461">
@@ -6817,10 +6817,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C461" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D461" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="462">
@@ -6831,10 +6831,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C462" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D462" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="463">
@@ -6845,10 +6845,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C463" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D463" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="464">
@@ -6859,10 +6859,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C464" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D464" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="465">
@@ -6873,10 +6873,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C465" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D465" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="466">
@@ -6887,10 +6887,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C466" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D466" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="467">
@@ -6901,10 +6901,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C467" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D467" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="468">
@@ -6915,10 +6915,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C468" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D468" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="469">
@@ -6929,10 +6929,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C469" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D469" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="470">
@@ -6943,10 +6943,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C470" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D470" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="471">
@@ -6957,10 +6957,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C471" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D471" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
     <row r="472">
@@ -6971,10 +6971,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C472" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D472" t="n">
-        <v>2.87829799936174</v>
+        <v>2.878284672737904</v>
       </c>
     </row>
   </sheetData>

--- a/TEST/EvaluationTable.xlsx
+++ b/TEST/EvaluationTable.xlsx
@@ -391,7 +391,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="D2" t="n">
         <v>17.84503447070385</v>
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.475</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>18.13286427064003</v>
+        <v>17.84504113401577</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.975</v>
       </c>
       <c r="D4" t="n">
-        <v>17.84505446063961</v>
+        <v>17.55721133407959</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>1.008333333333333</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>18.4206940705762</v>
+        <v>16.11810231427024</v>
       </c>
     </row>
     <row r="6">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>18.13286427064003</v>
+        <v>17.26939486076726</v>
       </c>
     </row>
     <row r="7">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.975</v>
+        <v>0.925</v>
       </c>
       <c r="D7" t="n">
-        <v>17.26940152407918</v>
+        <v>15.83027917764598</v>
       </c>
     </row>
     <row r="8">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>17.55721799739151</v>
+        <v>16.98157172414301</v>
       </c>
     </row>
     <row r="9">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C9" t="n">
         <v>0.9583333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>16.69376191414258</v>
+        <v>16.98156506083108</v>
       </c>
     </row>
     <row r="10">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.975</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>17.26940152407918</v>
+        <v>16.98156506083108</v>
       </c>
     </row>
     <row r="11">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="D11" t="n">
-        <v>16.11811564089407</v>
+        <v>16.69374858751875</v>
       </c>
     </row>
     <row r="12">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525</v>
+        <v>0.575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.95</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>16.40593211420641</v>
+        <v>14.67898663114896</v>
       </c>
     </row>
     <row r="13">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="D13" t="n">
-        <v>17.55722466070343</v>
+        <v>14.96680976777322</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.575</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>17.55722466070343</v>
+        <v>14.67898663114896</v>
       </c>
     </row>
     <row r="15">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>16.11810897758216</v>
+        <v>13.81551722127619</v>
       </c>
     </row>
     <row r="16">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="D16" t="n">
-        <v>17.55722466070343</v>
+        <v>14.10336701114812</v>
       </c>
     </row>
     <row r="17">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.825</v>
       </c>
       <c r="D17" t="n">
-        <v>15.25464623102131</v>
+        <v>12.37644818133834</v>
       </c>
     </row>
     <row r="18">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>15.8302858409579</v>
+        <v>13.52772740121153</v>
       </c>
     </row>
     <row r="19">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D19" t="n">
-        <v>16.98157838745492</v>
+        <v>11.51297877146557</v>
       </c>
     </row>
     <row r="20">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.55</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C20" t="n">
-        <v>0.925</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D20" t="n">
-        <v>15.54246270433364</v>
+        <v>12.66425799133876</v>
       </c>
     </row>
     <row r="21">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D21" t="n">
-        <v>14.96682309439705</v>
+        <v>12.66425799133876</v>
       </c>
     </row>
     <row r="22">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.575</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>14.67899995777279</v>
+        <v>13.52772073789961</v>
       </c>
     </row>
     <row r="23">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.625</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C23" t="n">
         <v>0.85</v>
       </c>
       <c r="D23" t="n">
-        <v>12.95206113802726</v>
+        <v>13.23989093796343</v>
       </c>
     </row>
     <row r="24">
@@ -699,10 +699,10 @@
         <v>0.6</v>
       </c>
       <c r="C24" t="n">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>13.81553054790003</v>
+        <v>13.81553721121195</v>
       </c>
     </row>
     <row r="25">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.625</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C25" t="n">
-        <v>0.85</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>12.95206113802726</v>
+        <v>13.52772740121153</v>
       </c>
     </row>
     <row r="26">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C26" t="n">
         <v>0.8666666666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>13.52770741127577</v>
+        <v>13.81555053783578</v>
       </c>
     </row>
     <row r="27">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D27" t="n">
-        <v>13.81553054790003</v>
+        <v>13.52772740121153</v>
       </c>
     </row>
     <row r="28">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C28" t="n">
-        <v>0.875</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D28" t="n">
-        <v>13.81553054790003</v>
+        <v>12.95208112796302</v>
       </c>
     </row>
     <row r="29">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C29" t="n">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="D29" t="n">
-        <v>13.81553054790003</v>
+        <v>13.23990426458727</v>
       </c>
     </row>
     <row r="30">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D30" t="n">
-        <v>13.23988427465152</v>
+        <v>13.81555053783578</v>
       </c>
     </row>
     <row r="31">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D31" t="n">
-        <v>13.23988427465152</v>
+        <v>13.81555053783578</v>
       </c>
     </row>
     <row r="32">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D32" t="n">
-        <v>13.23988427465152</v>
+        <v>12.95208112796302</v>
       </c>
     </row>
     <row r="33">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="D33" t="n">
-        <v>13.2398776113396</v>
+        <v>14.10337367446004</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         <v>0.6</v>
       </c>
       <c r="C34" t="n">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D34" t="n">
-        <v>13.81552388458811</v>
+        <v>13.81554387452386</v>
       </c>
     </row>
     <row r="35">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="D35" t="n">
-        <v>12.37641486477875</v>
+        <v>14.10337367446004</v>
       </c>
     </row>
     <row r="36">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.65</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C36" t="n">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="D36" t="n">
-        <v>12.08859172815449</v>
+        <v>14.10337367446004</v>
       </c>
     </row>
     <row r="37">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.65</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.825</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>12.08859172815449</v>
+        <v>13.52772740121153</v>
       </c>
     </row>
     <row r="38">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.65</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.825</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>12.08859839146641</v>
+        <v>13.52772740121153</v>
       </c>
     </row>
     <row r="39">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C39" t="n">
-        <v>0.825</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D39" t="n">
-        <v>12.08859839146641</v>
+        <v>13.81555053783578</v>
       </c>
     </row>
     <row r="40">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.65</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.825</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D40" t="n">
-        <v>12.08859839146641</v>
+        <v>13.52772073789961</v>
       </c>
     </row>
     <row r="41">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C41" t="n">
-        <v>0.825</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D41" t="n">
-        <v>12.08859839146641</v>
+        <v>13.81554387452386</v>
       </c>
     </row>
     <row r="42">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D42" t="n">
-        <v>12.66424466471492</v>
+        <v>13.81554387452386</v>
       </c>
     </row>
     <row r="43">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D43" t="n">
-        <v>12.66424466471492</v>
+        <v>13.81554387452386</v>
       </c>
     </row>
     <row r="44">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D44" t="n">
-        <v>12.66424466471492</v>
+        <v>13.81554387452386</v>
       </c>
     </row>
     <row r="45">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D45" t="n">
-        <v>12.66424466471492</v>
+        <v>13.81554387452386</v>
       </c>
     </row>
     <row r="46">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="D46" t="n">
-        <v>12.66424466471492</v>
+        <v>14.39119014777238</v>
       </c>
     </row>
     <row r="47">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="D47" t="n">
-        <v>12.66424466471492</v>
+        <v>14.10336701114812</v>
       </c>
     </row>
     <row r="48">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D48" t="n">
-        <v>12.66424466471492</v>
+        <v>13.81555053783578</v>
       </c>
     </row>
     <row r="49">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.625</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C49" t="n">
-        <v>0.85</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="D49" t="n">
-        <v>12.95206780133918</v>
+        <v>13.52772740121153</v>
       </c>
     </row>
     <row r="50">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D50" t="n">
-        <v>12.37642152809067</v>
+        <v>12.95208779127493</v>
       </c>
     </row>
     <row r="51">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="C51" t="n">
         <v>0.8416666666666667</v>
       </c>
       <c r="D51" t="n">
-        <v>12.66425132802684</v>
+        <v>12.95208779127493</v>
       </c>
     </row>
     <row r="52">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D52" t="n">
-        <v>12.37642152809067</v>
+        <v>12.95208779127493</v>
       </c>
     </row>
     <row r="53">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D53" t="n">
-        <v>12.37642819140259</v>
+        <v>11.80079524477791</v>
       </c>
     </row>
     <row r="54">
@@ -1119,10 +1119,10 @@
         <v>0.65</v>
       </c>
       <c r="C54" t="n">
-        <v>0.825</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D54" t="n">
-        <v>12.08859839146641</v>
+        <v>12.08861838140217</v>
       </c>
     </row>
     <row r="55">
@@ -1133,10 +1133,10 @@
         <v>0.65</v>
       </c>
       <c r="C55" t="n">
-        <v>0.825</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D55" t="n">
-        <v>12.08859839146641</v>
+        <v>12.08861838140217</v>
       </c>
     </row>
     <row r="56">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.65</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C56" t="n">
-        <v>0.825</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D56" t="n">
-        <v>12.08859839146641</v>
+        <v>11.80079524477791</v>
       </c>
     </row>
     <row r="57">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.65</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C57" t="n">
-        <v>0.825</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D57" t="n">
-        <v>12.08860505477833</v>
+        <v>11.80079524477791</v>
       </c>
     </row>
     <row r="58">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.65</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C58" t="n">
-        <v>0.825</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D58" t="n">
-        <v>12.08859839146641</v>
+        <v>11.80079524477791</v>
       </c>
     </row>
     <row r="59">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.65</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C59" t="n">
-        <v>0.825</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D59" t="n">
-        <v>12.08859839146641</v>
+        <v>11.80079524477791</v>
       </c>
     </row>
     <row r="60">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D60" t="n">
-        <v>12.37642152809067</v>
+        <v>11.80079524477791</v>
       </c>
     </row>
     <row r="61">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.675</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D61" t="n">
-        <v>11.22512898159365</v>
+        <v>11.80079524477791</v>
       </c>
     </row>
     <row r="62">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.675</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D62" t="n">
-        <v>11.22512898159365</v>
+        <v>11.80079524477791</v>
       </c>
     </row>
     <row r="63">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.675</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D63" t="n">
-        <v>11.22512898159365</v>
+        <v>11.80080190808983</v>
       </c>
     </row>
     <row r="64">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C64" t="n">
         <v>0.8083333333333333</v>
       </c>
       <c r="D64" t="n">
-        <v>11.51295878152982</v>
+        <v>11.80080190808983</v>
       </c>
     </row>
     <row r="65">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.675</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D65" t="n">
-        <v>11.22512898159365</v>
+        <v>11.80080190808983</v>
       </c>
     </row>
     <row r="66">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.675</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D66" t="n">
-        <v>11.22512898159365</v>
+        <v>11.80080190808983</v>
       </c>
     </row>
     <row r="67">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.675</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D67" t="n">
-        <v>11.22513564490557</v>
+        <v>11.80080190808983</v>
       </c>
     </row>
     <row r="68">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="D68" t="n">
-        <v>10.93731917159323</v>
+        <v>11.51297877146557</v>
       </c>
     </row>
     <row r="69">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D69" t="n">
-        <v>10.64948937165705</v>
+        <v>11.51297877146557</v>
       </c>
     </row>
     <row r="70">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="D70" t="n">
-        <v>10.93731250828131</v>
+        <v>11.51297210815366</v>
       </c>
     </row>
     <row r="71">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.675</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D71" t="n">
-        <v>10.07384309840854</v>
+        <v>11.22514230821748</v>
       </c>
     </row>
     <row r="72">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D72" t="n">
-        <v>9.786019961784286</v>
+        <v>11.80078858146599</v>
       </c>
     </row>
     <row r="73">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D73" t="n">
-        <v>9.786019961784286</v>
+        <v>11.51297210815366</v>
       </c>
     </row>
     <row r="74">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D74" t="n">
-        <v>9.786019961784286</v>
+        <v>12.08864503464984</v>
       </c>
     </row>
     <row r="75">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D75" t="n">
-        <v>10.07384309840854</v>
+        <v>12.08864503464984</v>
       </c>
     </row>
     <row r="76">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D76" t="n">
-        <v>10.07384309840854</v>
+        <v>11.80082189802558</v>
       </c>
     </row>
     <row r="77">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D77" t="n">
-        <v>10.07384309840854</v>
+        <v>11.80081523471367</v>
       </c>
     </row>
     <row r="78">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D78" t="n">
-        <v>10.07384309840854</v>
+        <v>12.08864503464984</v>
       </c>
     </row>
     <row r="79">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D79" t="n">
-        <v>10.07384976172046</v>
+        <v>11.51299876140133</v>
       </c>
     </row>
     <row r="80">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D80" t="n">
-        <v>9.210380351847691</v>
+        <v>11.80082189802558</v>
       </c>
     </row>
     <row r="81">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D81" t="n">
-        <v>9.210380351847691</v>
+        <v>11.22517562477707</v>
       </c>
     </row>
     <row r="82">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.725</v>
+        <v>0.675</v>
       </c>
       <c r="C82" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D82" t="n">
-        <v>9.498203488471948</v>
+        <v>11.22517562477707</v>
       </c>
     </row>
     <row r="83">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.725</v>
+        <v>0.675</v>
       </c>
       <c r="C83" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D83" t="n">
-        <v>9.498203488471948</v>
+        <v>11.22517562477707</v>
       </c>
     </row>
     <row r="84">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.725</v>
+        <v>0.7</v>
       </c>
       <c r="C84" t="n">
-        <v>0.75</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D84" t="n">
-        <v>9.498203488471948</v>
+        <v>10.36170621490431</v>
       </c>
     </row>
     <row r="85">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.725</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C85" t="n">
-        <v>0.75</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D85" t="n">
-        <v>9.498203488471948</v>
+        <v>10.07388307828005</v>
       </c>
     </row>
     <row r="86">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D86" t="n">
-        <v>9.210380351847691</v>
+        <v>10.07388307828005</v>
       </c>
     </row>
     <row r="87">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C87" t="n">
-        <v>0.725</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D87" t="n">
-        <v>8.634734078599179</v>
+        <v>10.07388307828005</v>
       </c>
     </row>
     <row r="88">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="C88" t="n">
         <v>0.75</v>
       </c>
-      <c r="C88" t="n">
-        <v>0.725</v>
-      </c>
       <c r="D88" t="n">
-        <v>8.634734078599179</v>
+        <v>9.786059941655795</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C89" t="n">
-        <v>0.725</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D89" t="n">
-        <v>8.634734078599179</v>
+        <v>10.07388307828005</v>
       </c>
     </row>
     <row r="90">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D90" t="n">
-        <v>8.922557215223437</v>
+        <v>10.07388307828005</v>
       </c>
     </row>
     <row r="91">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D91" t="n">
-        <v>8.922557215223437</v>
+        <v>10.07388307828005</v>
       </c>
     </row>
     <row r="92">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D92" t="n">
-        <v>8.922557215223437</v>
+        <v>10.36171954152814</v>
       </c>
     </row>
     <row r="93">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C93" t="n">
-        <v>0.725</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D93" t="n">
-        <v>8.634734078599179</v>
+        <v>10.07389640490389</v>
       </c>
     </row>
     <row r="94">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="C94" t="n">
         <v>0.75</v>
       </c>
-      <c r="C94" t="n">
-        <v>0.725</v>
-      </c>
       <c r="D94" t="n">
-        <v>8.634734078599179</v>
+        <v>9.786073268279631</v>
       </c>
     </row>
     <row r="95">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D95" t="n">
-        <v>7.483441532102158</v>
+        <v>9.786073268279631</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="D96" t="n">
-        <v>8.059087805350668</v>
+        <v>9.786073268279631</v>
       </c>
     </row>
     <row r="97">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="D97" t="n">
-        <v>8.059087805350668</v>
+        <v>9.786073268279631</v>
       </c>
     </row>
     <row r="98">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="D98" t="n">
-        <v>8.059087805350668</v>
+        <v>9.786073268279631</v>
       </c>
     </row>
     <row r="99">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="D99" t="n">
-        <v>8.059087805350668</v>
+        <v>9.786073268279631</v>
       </c>
     </row>
     <row r="100">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="D100" t="n">
-        <v>8.346917605286844</v>
+        <v>9.498250131655375</v>
       </c>
     </row>
     <row r="101">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C101" t="n">
-        <v>0.725</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="D101" t="n">
-        <v>8.634740741911099</v>
+        <v>9.498250131655375</v>
       </c>
     </row>
     <row r="102">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D102" t="n">
-        <v>8.346917605286844</v>
+        <v>9.210426995031121</v>
       </c>
     </row>
     <row r="103">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D103" t="n">
-        <v>8.346917605286844</v>
+        <v>9.210426995031121</v>
       </c>
     </row>
     <row r="104">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.75</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C104" t="n">
         <v>0.725</v>
       </c>
       <c r="D104" t="n">
-        <v>8.634740741911099</v>
+        <v>8.922603858406864</v>
       </c>
     </row>
     <row r="105">
@@ -1833,10 +1833,10 @@
         <v>0.75</v>
       </c>
       <c r="C105" t="n">
-        <v>0.725</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D105" t="n">
-        <v>8.634740741911099</v>
+        <v>8.63478072178261</v>
       </c>
     </row>
     <row r="106">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D106" t="n">
-        <v>8.922563878535355</v>
+        <v>8.63478072178261</v>
       </c>
     </row>
     <row r="107">
@@ -1861,10 +1861,10 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="D107" t="n">
-        <v>8.922570541847273</v>
+        <v>8.922603858406864</v>
       </c>
     </row>
     <row r="108">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="D108" t="n">
-        <v>9.210393678471528</v>
+        <v>8.922603858406864</v>
       </c>
     </row>
     <row r="109">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D109" t="n">
-        <v>9.210387015159609</v>
+        <v>8.63478072178261</v>
       </c>
     </row>
     <row r="110">
@@ -1903,10 +1903,10 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="D110" t="n">
-        <v>8.922570541847273</v>
+        <v>8.922610521718783</v>
       </c>
     </row>
     <row r="111">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C111" t="n">
         <v>0.7166666666666667</v>
       </c>
       <c r="D111" t="n">
-        <v>8.346924268598762</v>
+        <v>8.634787385094528</v>
       </c>
     </row>
     <row r="112">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.75</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C112" t="n">
-        <v>0.725</v>
+        <v>0.7</v>
       </c>
       <c r="D112" t="n">
-        <v>8.634747405223017</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="113">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D113" t="n">
-        <v>8.922570541847273</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="114">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D114" t="n">
-        <v>8.346924268598762</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="115">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C115" t="n">
         <v>0.7</v>
       </c>
       <c r="D115" t="n">
-        <v>7.771277995350249</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="116">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C116" t="n">
         <v>0.7</v>
       </c>
       <c r="D116" t="n">
-        <v>7.771277995350249</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="117">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C117" t="n">
         <v>0.7</v>
       </c>
       <c r="D117" t="n">
-        <v>7.771277995350249</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="118">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C118" t="n">
         <v>0.7</v>
       </c>
       <c r="D118" t="n">
-        <v>7.771277995350249</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="119">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C119" t="n">
         <v>0.7</v>
       </c>
       <c r="D119" t="n">
-        <v>7.771277995350249</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="120">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C120" t="n">
         <v>0.7</v>
       </c>
       <c r="D120" t="n">
-        <v>7.771277995350249</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="121">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C121" t="n">
         <v>0.7</v>
       </c>
       <c r="D121" t="n">
-        <v>7.771277995350249</v>
+        <v>8.059141111846015</v>
       </c>
     </row>
     <row r="122">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D122" t="n">
-        <v>7.195631722101738</v>
+        <v>7.771317975221761</v>
       </c>
     </row>
     <row r="123">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D123" t="n">
-        <v>6.619985448853227</v>
+        <v>8.346957585158354</v>
       </c>
     </row>
     <row r="124">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D124" t="n">
-        <v>6.619985448853227</v>
+        <v>8.346957585158354</v>
       </c>
     </row>
     <row r="125">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.825</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C125" t="n">
-        <v>0.65</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D125" t="n">
-        <v>6.044339175604716</v>
+        <v>8.346957585158354</v>
       </c>
     </row>
     <row r="126">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D126" t="n">
-        <v>6.332162312228972</v>
+        <v>8.346957585158354</v>
       </c>
     </row>
     <row r="127">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D127" t="n">
-        <v>6.332162312228972</v>
+        <v>9.210426995031121</v>
       </c>
     </row>
     <row r="128">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="C128" t="n">
-        <v>0.65</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D128" t="n">
-        <v>6.044345838916635</v>
+        <v>8.63478072178261</v>
       </c>
     </row>
     <row r="129">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.825</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C129" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D129" t="n">
-        <v>6.044345838916635</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="130">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.825</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C130" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D130" t="n">
-        <v>6.044345838916635</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="131">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.825</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C131" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D131" t="n">
-        <v>6.044345838916635</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="132">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.825</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C132" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D132" t="n">
-        <v>6.044345838916635</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="133">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D133" t="n">
-        <v>5.75651603898046</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="134">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D134" t="n">
-        <v>5.75651603898046</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="135">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.825</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C135" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D135" t="n">
-        <v>6.044339175604716</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="136">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D136" t="n">
-        <v>5.75651603898046</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="137">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D137" t="n">
-        <v>5.75651603898046</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="138">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D138" t="n">
-        <v>5.75651603898046</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="139">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D139" t="n">
-        <v>5.75651603898046</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="140">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.825</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C140" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D140" t="n">
-        <v>6.044339175604716</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="141">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D141" t="n">
-        <v>6.332162312228972</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="142">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D142" t="n">
-        <v>6.332162312228972</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="143">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D143" t="n">
-        <v>6.332162312228972</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="144">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D144" t="n">
-        <v>6.332162312228972</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="145">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D145" t="n">
-        <v>7.483454858725994</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="146">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C146" t="n">
         <v>0.7</v>
       </c>
       <c r="D146" t="n">
-        <v>7.77127799535025</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="147">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D147" t="n">
-        <v>7.195631722101738</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="148">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D148" t="n">
-        <v>7.483454858725993</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="149">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C149" t="n">
         <v>0.7</v>
       </c>
       <c r="D149" t="n">
-        <v>7.77127799535025</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="150">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C150" t="n">
         <v>0.7</v>
       </c>
       <c r="D150" t="n">
-        <v>7.77127799535025</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="151">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C151" t="n">
         <v>0.7</v>
       </c>
       <c r="D151" t="n">
-        <v>7.771271332038331</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="152">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C152" t="n">
         <v>0.7</v>
       </c>
       <c r="D152" t="n">
-        <v>7.771271332038331</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="153">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C153" t="n">
         <v>0.7</v>
       </c>
       <c r="D153" t="n">
-        <v>7.771271332038331</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="154">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.775</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C154" t="n">
         <v>0.7</v>
       </c>
       <c r="D154" t="n">
-        <v>7.771271332038331</v>
+        <v>8.059134448534097</v>
       </c>
     </row>
     <row r="155">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C155" t="n">
         <v>0.6916666666666667</v>
       </c>
       <c r="D155" t="n">
-        <v>7.483448195414075</v>
+        <v>7.771311311909842</v>
       </c>
     </row>
     <row r="156">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C156" t="n">
         <v>0.6916666666666667</v>
       </c>
       <c r="D156" t="n">
-        <v>7.483448195414075</v>
+        <v>7.771311311909842</v>
       </c>
     </row>
     <row r="157">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C157" t="n">
         <v>0.6916666666666667</v>
       </c>
       <c r="D157" t="n">
-        <v>7.483448195414075</v>
+        <v>7.771311311909842</v>
       </c>
     </row>
     <row r="158">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C158" t="n">
         <v>0.6916666666666667</v>
       </c>
       <c r="D158" t="n">
-        <v>7.483448195414075</v>
+        <v>7.771311311909842</v>
       </c>
     </row>
     <row r="159">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>7.19562505878982</v>
+        <v>7.771311311909842</v>
       </c>
     </row>
     <row r="160">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C160" t="n">
         <v>0.6833333333333333</v>
       </c>
       <c r="D160" t="n">
-        <v>7.19562505878982</v>
+        <v>7.483488175285586</v>
       </c>
     </row>
     <row r="161">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.8</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C161" t="n">
-        <v>0.675</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D161" t="n">
-        <v>6.907801922165564</v>
+        <v>7.483481511973667</v>
       </c>
     </row>
     <row r="162">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C162" t="n">
         <v>0.6833333333333333</v>
       </c>
       <c r="D162" t="n">
-        <v>7.19562505878982</v>
+        <v>7.483481511973667</v>
       </c>
     </row>
     <row r="163">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D163" t="n">
-        <v>7.19562505878982</v>
+        <v>7.771304648597924</v>
       </c>
     </row>
     <row r="164">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D164" t="n">
-        <v>7.19562505878982</v>
+        <v>7.771304648597924</v>
       </c>
     </row>
     <row r="165">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.825</v>
+        <v>0.775</v>
       </c>
       <c r="C165" t="n">
-        <v>0.65</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D165" t="n">
-        <v>6.044332512292797</v>
+        <v>7.771304648597924</v>
       </c>
     </row>
     <row r="166">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="C166" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D166" t="n">
-        <v>6.332155648917054</v>
+        <v>7.771304648597924</v>
       </c>
     </row>
     <row r="167">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.775</v>
       </c>
       <c r="C167" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D167" t="n">
-        <v>5.756509375668541</v>
+        <v>7.771304648597924</v>
       </c>
     </row>
     <row r="168">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D168" t="n">
-        <v>5.468686239044286</v>
+        <v>7.771304648597924</v>
       </c>
     </row>
     <row r="169">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D169" t="n">
-        <v>5.468686239044286</v>
+        <v>7.771304648597924</v>
       </c>
     </row>
     <row r="170">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="C170" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D170" t="n">
-        <v>5.468686239044286</v>
+        <v>7.771304648597924</v>
       </c>
     </row>
     <row r="171">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D171" t="n">
-        <v>5.468686239044286</v>
+        <v>7.771304648597924</v>
       </c>
     </row>
     <row r="172">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D172" t="n">
-        <v>5.468686239044286</v>
+        <v>8.059127785222181</v>
       </c>
     </row>
     <row r="173">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D173" t="n">
-        <v>5.468686239044286</v>
+        <v>7.483481511973667</v>
       </c>
     </row>
     <row r="174">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D174" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771304648597923</v>
       </c>
     </row>
     <row r="175">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D175" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771304648597923</v>
       </c>
     </row>
     <row r="176">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D176" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771304648597923</v>
       </c>
     </row>
     <row r="177">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="D177" t="n">
-        <v>4.893039965795775</v>
+        <v>7.195658375349412</v>
       </c>
     </row>
     <row r="178">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D178" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771304648597923</v>
       </c>
     </row>
     <row r="179">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D179" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771304648597923</v>
       </c>
     </row>
     <row r="180">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D180" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771304648597923</v>
       </c>
     </row>
     <row r="181">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C181" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D181" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771304648597923</v>
       </c>
     </row>
     <row r="182">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C182" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D182" t="n">
-        <v>4.893039965795775</v>
+        <v>7.483474848661749</v>
       </c>
     </row>
     <row r="183">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C183" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D183" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771304648597923</v>
       </c>
     </row>
     <row r="184">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C184" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D184" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771304648597923</v>
       </c>
     </row>
     <row r="185">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C185" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D185" t="n">
-        <v>4.893039965795775</v>
+        <v>7.771311311909842</v>
       </c>
     </row>
     <row r="186">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.875</v>
+        <v>0.775</v>
       </c>
       <c r="C186" t="n">
-        <v>0.6</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D186" t="n">
-        <v>4.317380365923428</v>
+        <v>7.771311311909842</v>
       </c>
     </row>
     <row r="187">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.875</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C187" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D187" t="n">
-        <v>4.317380365923428</v>
+        <v>8.059127785222179</v>
       </c>
     </row>
     <row r="188">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.875</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C188" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D188" t="n">
-        <v>4.317380365923428</v>
+        <v>8.059127785222179</v>
       </c>
     </row>
     <row r="189">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.875</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C189" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D189" t="n">
-        <v>4.317380365923428</v>
+        <v>8.059127785222179</v>
       </c>
     </row>
     <row r="190">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.875</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C190" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D190" t="n">
-        <v>4.317380365923428</v>
+        <v>8.059127785222179</v>
       </c>
     </row>
     <row r="191">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.875</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C191" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D191" t="n">
-        <v>4.317380365923428</v>
+        <v>8.059127785222179</v>
       </c>
     </row>
     <row r="192">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.875</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C192" t="n">
-        <v>0.6</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D192" t="n">
-        <v>4.317380365923428</v>
+        <v>8.346957585158354</v>
       </c>
     </row>
     <row r="193">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C193" t="n">
-        <v>0.6</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D193" t="n">
-        <v>4.317380365923428</v>
+        <v>8.63478072178261</v>
       </c>
     </row>
     <row r="194">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C194" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D194" t="n">
-        <v>4.605203502547683</v>
+        <v>8.63478072178261</v>
       </c>
     </row>
     <row r="195">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C195" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D195" t="n">
-        <v>4.893026639171938</v>
+        <v>8.34697091178219</v>
       </c>
     </row>
     <row r="196">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C196" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D196" t="n">
-        <v>4.893026639171938</v>
+        <v>8.34697091178219</v>
       </c>
     </row>
     <row r="197">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C197" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D197" t="n">
-        <v>4.893026639171938</v>
+        <v>8.059147775157934</v>
       </c>
     </row>
     <row r="198">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D198" t="n">
-        <v>4.893026639171938</v>
+        <v>8.059147775157934</v>
       </c>
     </row>
     <row r="199">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="D199" t="n">
-        <v>4.893026639171938</v>
+        <v>8.059147775157934</v>
       </c>
     </row>
     <row r="200">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D200" t="n">
-        <v>4.317380365923428</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="201">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D201" t="n">
-        <v>4.317380365923428</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="202">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D202" t="n">
-        <v>4.317380365923428</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="203">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D203" t="n">
-        <v>4.317380365923428</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="204">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D204" t="n">
-        <v>4.317380365923428</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="205">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D205" t="n">
-        <v>4.317380365923428</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="206">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D206" t="n">
-        <v>4.605210165859601</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="207">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D207" t="n">
-        <v>4.605210165859601</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="208">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D208" t="n">
-        <v>4.605210165859601</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="209">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D209" t="n">
-        <v>4.605210165859601</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="210">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="C210" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D210" t="n">
-        <v>3.741740755986834</v>
+        <v>7.483494838597505</v>
       </c>
     </row>
     <row r="211">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C211" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D211" t="n">
-        <v>3.741740755986834</v>
+        <v>6.907848565348993</v>
       </c>
     </row>
     <row r="212">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C212" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D212" t="n">
-        <v>3.741740755986834</v>
+        <v>6.907848565348993</v>
       </c>
     </row>
     <row r="213">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D213" t="n">
-        <v>3.741740755986834</v>
+        <v>6.907848565348993</v>
       </c>
     </row>
     <row r="214">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C214" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D214" t="n">
-        <v>3.741740755986834</v>
+        <v>6.907848565348993</v>
       </c>
     </row>
     <row r="215">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C215" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D215" t="n">
-        <v>3.741740755986834</v>
+        <v>6.907848565348993</v>
       </c>
     </row>
     <row r="216">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C216" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D216" t="n">
-        <v>3.741740755986834</v>
+        <v>6.907848565348993</v>
       </c>
     </row>
     <row r="217">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="C217" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D217" t="n">
-        <v>3.741740755986834</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="218">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.9</v>
+        <v>0.825</v>
       </c>
       <c r="C218" t="n">
-        <v>0.575</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D218" t="n">
-        <v>3.453917619362578</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="219">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D219" t="n">
-        <v>3.166094482738323</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="220">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C220" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D220" t="n">
-        <v>3.166094482738323</v>
+        <v>5.75655601885197</v>
       </c>
     </row>
     <row r="221">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D221" t="n">
-        <v>3.166094482738323</v>
+        <v>5.75655601885197</v>
       </c>
     </row>
     <row r="222">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C222" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D222" t="n">
-        <v>3.166094482738323</v>
+        <v>5.75655601885197</v>
       </c>
     </row>
     <row r="223">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C223" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D223" t="n">
-        <v>3.166094482738323</v>
+        <v>5.75655601885197</v>
       </c>
     </row>
     <row r="224">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C224" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D224" t="n">
-        <v>3.166094482738323</v>
+        <v>5.75655601885197</v>
       </c>
     </row>
     <row r="225">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D225" t="n">
-        <v>3.741740755986834</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="226">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C226" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D226" t="n">
-        <v>2.878271346114067</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="227">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D227" t="n">
-        <v>2.878271346114067</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="228">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D228" t="n">
-        <v>2.878271346114067</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="229">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="D229" t="n">
-        <v>2.878271346114067</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="230">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.85</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D230" t="n">
-        <v>2.878271346114067</v>
+        <v>5.180916408915378</v>
       </c>
     </row>
     <row r="231">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.85</v>
       </c>
       <c r="C231" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D231" t="n">
-        <v>2.878271346114067</v>
+        <v>5.180916408915378</v>
       </c>
     </row>
     <row r="232">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.85</v>
       </c>
       <c r="C232" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D232" t="n">
-        <v>2.878271346114067</v>
+        <v>5.180916408915378</v>
       </c>
     </row>
     <row r="233">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C233" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D233" t="n">
-        <v>2.878271346114067</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="234">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C234" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D234" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="235">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D235" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="236">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D236" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="237">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D237" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="238">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C238" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D238" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="239">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C239" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D239" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="240">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C240" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D240" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="241">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D241" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="242">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C242" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D242" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="243">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C243" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D243" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="244">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C244" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D244" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="245">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C245" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D245" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="246">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C246" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D246" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="247">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C247" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D247" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="248">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D248" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="249">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C249" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D249" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="250">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D250" t="n">
-        <v>3.741740755986834</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="251">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C251" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D251" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="252">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C252" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D252" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="253">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C253" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D253" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="254">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D254" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="255">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C255" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D255" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="256">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C256" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D256" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="257">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D257" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="258">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C258" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D258" t="n">
-        <v>3.741747419298753</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="259">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C259" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D259" t="n">
-        <v>3.741747419298753</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="260">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C260" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D260" t="n">
-        <v>3.741747419298753</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="261">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C261" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D261" t="n">
-        <v>3.741747419298753</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="262">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C262" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D262" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="263">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C263" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D263" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="264">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C264" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D264" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="265">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C265" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D265" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="266">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C266" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D266" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="267">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C267" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D267" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="268">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C268" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D268" t="n">
-        <v>4.029570555923008</v>
+        <v>5.18090974560346</v>
       </c>
     </row>
     <row r="269">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C269" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D269" t="n">
-        <v>4.029570555923008</v>
+        <v>5.18090974560346</v>
       </c>
     </row>
     <row r="270">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C270" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D270" t="n">
-        <v>4.029570555923008</v>
+        <v>5.18090974560346</v>
       </c>
     </row>
     <row r="271">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C271" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D271" t="n">
-        <v>4.029570555923008</v>
+        <v>5.18090974560346</v>
       </c>
     </row>
     <row r="272">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C272" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D272" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="273">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C273" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D273" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="274">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C274" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D274" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="275">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C275" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D275" t="n">
-        <v>4.029570555923008</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="276">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.875</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C276" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="D276" t="n">
-        <v>4.317393692547264</v>
+        <v>5.468739545539633</v>
       </c>
     </row>
     <row r="277">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C277" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D277" t="n">
-        <v>4.029570555923008</v>
+        <v>5.180916408915378</v>
       </c>
     </row>
     <row r="278">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C278" t="n">
-        <v>0.6</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D278" t="n">
-        <v>4.317393692547264</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="279">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C279" t="n">
-        <v>0.6</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D279" t="n">
-        <v>4.317393692547264</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="280">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C280" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D280" t="n">
-        <v>4.029570555923008</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="281">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C281" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D281" t="n">
-        <v>3.741747419298753</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="282">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C282" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D282" t="n">
-        <v>3.741747419298753</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="283">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C283" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D283" t="n">
-        <v>4.029570555923008</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="284">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C284" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D284" t="n">
-        <v>3.741747419298753</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="285">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C285" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D285" t="n">
-        <v>3.741747419298753</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="286">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C286" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D286" t="n">
-        <v>3.741747419298753</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="287">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C287" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D287" t="n">
-        <v>4.029570555923008</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="288">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C288" t="n">
-        <v>0.6</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D288" t="n">
-        <v>4.317393692547264</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="289">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C289" t="n">
-        <v>0.6</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D289" t="n">
-        <v>4.317393692547264</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="290">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C290" t="n">
-        <v>0.6</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D290" t="n">
-        <v>4.317393692547264</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="291">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C291" t="n">
-        <v>0.6</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D291" t="n">
-        <v>4.317393692547264</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="292">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C292" t="n">
-        <v>0.6</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D292" t="n">
-        <v>4.317393692547264</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="293">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C293" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D293" t="n">
-        <v>4.029570555923008</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="294">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C294" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D294" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="295">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C295" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D295" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="296">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C296" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D296" t="n">
-        <v>3.741740755986834</v>
+        <v>4.893093272291122</v>
       </c>
     </row>
     <row r="297">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C297" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D297" t="n">
-        <v>3.741740755986834</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="298">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C298" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D298" t="n">
-        <v>3.741740755986834</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="299">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C299" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D299" t="n">
-        <v>3.741740755986834</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="300">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C300" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D300" t="n">
-        <v>3.741740755986834</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="301">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C301" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D301" t="n">
-        <v>3.741740755986834</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="302">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C302" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D302" t="n">
-        <v>3.741740755986834</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="303">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C303" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D303" t="n">
-        <v>3.741740755986834</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="304">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C304" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D304" t="n">
-        <v>3.741740755986834</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="305">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C305" t="n">
         <v>0.6</v>
       </c>
       <c r="D305" t="n">
-        <v>4.317387029235346</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="306">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C306" t="n">
         <v>0.6</v>
       </c>
       <c r="D306" t="n">
-        <v>4.317387029235346</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="307">
@@ -4661,10 +4661,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C307" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D307" t="n">
-        <v>4.605210165859601</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="308">
@@ -4675,10 +4675,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C308" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D308" t="n">
-        <v>4.605210165859601</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="309">
@@ -4689,10 +4689,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C309" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D309" t="n">
-        <v>4.605210165859601</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="310">
@@ -4703,10 +4703,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C310" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D310" t="n">
-        <v>4.605210165859601</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="311">
@@ -4717,10 +4717,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C311" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D311" t="n">
-        <v>4.605210165859601</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="312">
@@ -4731,10 +4731,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C312" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D312" t="n">
-        <v>4.605210165859601</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="313">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C313" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D313" t="n">
-        <v>4.893033302483857</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="314">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C314" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D314" t="n">
-        <v>4.893033302483857</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="315">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C315" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D315" t="n">
-        <v>4.893033302483857</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="316">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C316" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="D316" t="n">
-        <v>3.741740755986834</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="317">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C317" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="D317" t="n">
-        <v>3.741740755986834</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="318">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C318" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D318" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="319">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C319" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D319" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="320">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C320" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D320" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="321">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C321" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D321" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="322">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C322" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D322" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="323">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C323" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D323" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="324">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C324" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D324" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="325">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C325" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D325" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="326">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C326" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D326" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="327">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C327" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D327" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="328">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C328" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D328" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="329">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C329" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D329" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="330">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C330" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D330" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="331">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C331" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="D331" t="n">
-        <v>3.453917619362578</v>
+        <v>4.605263472354948</v>
       </c>
     </row>
     <row r="332">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C332" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D332" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="333">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C333" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D333" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="334">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C334" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D334" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="335">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C335" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D335" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="336">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C336" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D336" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="337">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C337" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D337" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="338">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C338" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D338" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="339">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C339" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D339" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="340">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C340" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D340" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="341">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C341" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D341" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="342">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C342" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D342" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="343">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C343" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D343" t="n">
-        <v>3.453917619362578</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="344">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C344" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D344" t="n">
-        <v>2.878271346114067</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="345">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C345" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D345" t="n">
-        <v>2.878271346114067</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="346">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C346" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D346" t="n">
-        <v>2.878271346114067</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="347">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C347" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D347" t="n">
-        <v>2.878271346114067</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="348">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C348" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D348" t="n">
-        <v>2.878271346114067</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="349">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C349" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D349" t="n">
-        <v>2.878271346114067</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="350">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C350" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D350" t="n">
-        <v>2.878271346114067</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="351">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="C351" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D351" t="n">
-        <v>2.878271346114067</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="352">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="C352" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D352" t="n">
-        <v>2.878271346114067</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="353">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="C353" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D353" t="n">
-        <v>2.878271346114067</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="354">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="C354" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D354" t="n">
-        <v>2.878271346114067</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="355">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="C355" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D355" t="n">
-        <v>2.878271346114067</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="356">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C356" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D356" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="357">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C357" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D357" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="358">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C358" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D358" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="359">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C359" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D359" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="360">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C360" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D360" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="361">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C361" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D361" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="362">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C362" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D362" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="363">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C363" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D363" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="364">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C364" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D364" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="365">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C365" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D365" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="366">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C366" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D366" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="367">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C367" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D367" t="n">
-        <v>3.166101146050242</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="368">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="C368" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D368" t="n">
-        <v>2.878278009425985</v>
+        <v>4.317440335730693</v>
       </c>
     </row>
     <row r="369">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C369" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D369" t="n">
-        <v>2.878278009425985</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="370">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C370" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D370" t="n">
-        <v>2.878278009425985</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="371">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C371" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D371" t="n">
-        <v>2.878278009425985</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="372">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C372" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D372" t="n">
-        <v>2.878278009425985</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="373">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C373" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D373" t="n">
-        <v>2.878278009425985</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="374">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C374" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D374" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="375">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C375" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D375" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C376" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D376" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="377">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C377" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D377" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="378">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C378" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D378" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="379">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C379" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D379" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="380">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C380" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D380" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="381">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C381" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D381" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="382">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C382" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D382" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="383">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C383" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D383" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="384">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C384" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D384" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="385">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C385" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D385" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="386">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C386" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D386" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="387">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C387" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D387" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="388">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C388" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D388" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="389">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C389" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D389" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="390">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C390" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D390" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="391">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C391" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D391" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="392">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C392" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D392" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="393">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.925</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C393" t="n">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D393" t="n">
-        <v>2.59045487280173</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="394">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C394" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D394" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="395">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C395" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D395" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="396">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C396" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D396" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="397">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C397" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D397" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="398">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C398" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D398" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="399">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C399" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D399" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="400">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C400" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D400" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="401">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C401" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D401" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="402">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C402" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D402" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="403">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C403" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D403" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="404">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C404" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D404" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="405">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C405" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D405" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="406">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C406" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D406" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="407">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C407" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D407" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="408">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C408" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D408" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="409">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C409" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D409" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="410">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C410" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D410" t="n">
-        <v>2.302631736177474</v>
+        <v>4.029617199106437</v>
       </c>
     </row>
     <row r="411">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C411" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.575</v>
       </c>
       <c r="D411" t="n">
-        <v>2.302631736177474</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="412">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C412" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.575</v>
       </c>
       <c r="D412" t="n">
-        <v>2.302631736177474</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="413">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C413" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.575</v>
       </c>
       <c r="D413" t="n">
-        <v>2.302631736177474</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="414">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C414" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D414" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="415">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C415" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D415" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="416">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C416" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D416" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="417">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C417" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D417" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="418">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C418" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D418" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="419">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C419" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D419" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="420">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C420" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D420" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="421">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C421" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D421" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="422">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C422" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D422" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="423">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C423" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D423" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="424">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C424" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D424" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="425">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C425" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D425" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="426">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C426" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D426" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="427">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C427" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D427" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="428">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C428" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D428" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="429">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C429" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D429" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="430">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C430" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D430" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="431">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C431" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D431" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="432">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C432" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D432" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="433">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C433" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D433" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="434">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C434" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D434" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="435">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C435" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D435" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="436">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C436" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D436" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="437">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C437" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D437" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="438">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C438" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D438" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="439">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C439" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D439" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="440">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C440" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D440" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="441">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C441" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D441" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="442">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C442" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D442" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="443">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C443" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D443" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="444">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C444" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D444" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="445">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C445" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D445" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="446">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C446" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D446" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="447">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C447" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D447" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="448">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C448" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D448" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="449">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C449" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="D449" t="n">
-        <v>2.590461536113648</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="450">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C450" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D450" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="451">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C451" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D451" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="452">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C452" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D452" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="453">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C453" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D453" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="454">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C454" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D454" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="455">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C455" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D455" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="456">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C456" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D456" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="457">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C457" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D457" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="458">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C458" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D458" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="459">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C459" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D459" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="460">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C460" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D460" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="461">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C461" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D461" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="462">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C462" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D462" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="463">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C463" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D463" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="464">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C464" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D464" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="465">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C465" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D465" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="466">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C466" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D466" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="467">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C467" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D467" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="468">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C468" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D468" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="469">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C469" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D469" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="470">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C470" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D470" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="471">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C471" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D471" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
     <row r="472">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C472" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="D472" t="n">
-        <v>2.878284672737904</v>
+        <v>3.741787399170263</v>
       </c>
     </row>
   </sheetData>

--- a/TEST/EvaluationTable.xlsx
+++ b/TEST/EvaluationTable.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C2" t="n">
         <v>0.9833333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>17.84503447070385</v>
+        <v>15.83027917764598</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9833333333333333</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>17.84504113401577</v>
+        <v>16.40593877751833</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.525</v>
       </c>
       <c r="C4" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>17.55721133407959</v>
+        <v>16.40593877751833</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>16.11810231427024</v>
+        <v>16.40593877751833</v>
       </c>
     </row>
     <row r="6">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>17.26939486076726</v>
+        <v>16.11811564089408</v>
       </c>
     </row>
     <row r="7">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.55</v>
       </c>
       <c r="C7" t="n">
-        <v>0.925</v>
+        <v>0.975</v>
       </c>
       <c r="D7" t="n">
-        <v>15.83027917764598</v>
+        <v>15.54247603095748</v>
       </c>
     </row>
     <row r="8">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.975</v>
       </c>
       <c r="D8" t="n">
-        <v>16.98157172414301</v>
+        <v>15.54247603095748</v>
       </c>
     </row>
     <row r="9">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>16.98156506083108</v>
+        <v>16.11812230420599</v>
       </c>
     </row>
     <row r="10">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>16.98156506083108</v>
+        <v>16.11812230420599</v>
       </c>
     </row>
     <row r="11">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="C11" t="n">
-        <v>0.95</v>
+        <v>0.975</v>
       </c>
       <c r="D11" t="n">
-        <v>16.69374858751875</v>
+        <v>15.54247603095748</v>
       </c>
     </row>
     <row r="12">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.575</v>
+        <v>0.55</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.975</v>
       </c>
       <c r="D12" t="n">
-        <v>14.67898663114896</v>
+        <v>15.5424826942694</v>
       </c>
     </row>
     <row r="13">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>14.96680976777322</v>
+        <v>14.39119014777238</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.575</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>14.67898663114896</v>
+        <v>14.96683642102089</v>
       </c>
     </row>
     <row r="15">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D15" t="n">
-        <v>13.81551722127619</v>
+        <v>14.96683642102089</v>
       </c>
     </row>
     <row r="16">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.875</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>14.10336701114812</v>
+        <v>14.96683642102089</v>
       </c>
     </row>
     <row r="17">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="C17" t="n">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="D17" t="n">
-        <v>12.37644818133834</v>
+        <v>14.67901994770855</v>
       </c>
     </row>
     <row r="18">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.95</v>
       </c>
       <c r="D18" t="n">
-        <v>13.52772740121153</v>
+        <v>14.67901328439663</v>
       </c>
     </row>
     <row r="19">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D19" t="n">
-        <v>11.51297877146557</v>
+        <v>14.96683642102088</v>
       </c>
     </row>
     <row r="20">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.975</v>
       </c>
       <c r="D20" t="n">
-        <v>12.66425799133876</v>
+        <v>15.5424826942694</v>
       </c>
     </row>
     <row r="21">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>12.66425799133876</v>
+        <v>15.25465955764514</v>
       </c>
     </row>
     <row r="22">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>13.52772073789961</v>
+        <v>14.10337367446004</v>
       </c>
     </row>
     <row r="23">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>0.85</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D23" t="n">
-        <v>13.23989093796343</v>
+        <v>14.10338033777196</v>
       </c>
     </row>
     <row r="24">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>13.81553721121195</v>
+        <v>14.10338033777196</v>
       </c>
     </row>
     <row r="25">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>13.52772740121153</v>
+        <v>14.10338033777196</v>
       </c>
     </row>
     <row r="26">
@@ -727,10 +727,10 @@
         <v>0.6</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.925</v>
       </c>
       <c r="D26" t="n">
-        <v>13.81555053783578</v>
+        <v>13.8155572011477</v>
       </c>
     </row>
     <row r="27">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.925</v>
       </c>
       <c r="D27" t="n">
-        <v>13.52772740121153</v>
+        <v>13.8155572011477</v>
       </c>
     </row>
     <row r="28">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.925</v>
       </c>
       <c r="D28" t="n">
-        <v>12.95208112796302</v>
+        <v>13.81556386445962</v>
       </c>
     </row>
     <row r="29">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D29" t="n">
-        <v>13.23990426458727</v>
+        <v>12.95210111789877</v>
       </c>
     </row>
     <row r="30">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="D30" t="n">
-        <v>13.81555053783578</v>
+        <v>13.23993091783495</v>
       </c>
     </row>
     <row r="31">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="D31" t="n">
-        <v>13.81555053783578</v>
+        <v>12.6642713179626</v>
       </c>
     </row>
     <row r="32">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.625</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>12.95208112796302</v>
+        <v>13.23991759121111</v>
       </c>
     </row>
     <row r="33">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0.875</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="D33" t="n">
-        <v>14.10337367446004</v>
+        <v>13.23991759121111</v>
       </c>
     </row>
     <row r="34">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="D34" t="n">
-        <v>13.81554387452386</v>
+        <v>13.23991759121111</v>
       </c>
     </row>
     <row r="35">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="D35" t="n">
-        <v>14.10337367446004</v>
+        <v>12.6642713179626</v>
       </c>
     </row>
     <row r="36">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>14.10337367446004</v>
+        <v>12.66427798127452</v>
       </c>
     </row>
     <row r="37">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>13.52772740121153</v>
+        <v>12.37644818133834</v>
       </c>
     </row>
     <row r="38">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="D38" t="n">
-        <v>13.52772740121153</v>
+        <v>12.66427798127452</v>
       </c>
     </row>
     <row r="39">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="D39" t="n">
-        <v>13.81555053783578</v>
+        <v>12.37646150796218</v>
       </c>
     </row>
     <row r="40">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="D40" t="n">
-        <v>13.52772073789961</v>
+        <v>11.22517562477707</v>
       </c>
     </row>
     <row r="41">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6</v>
+        <v>0.675</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="D41" t="n">
-        <v>13.81554387452386</v>
+        <v>11.22516896146516</v>
       </c>
     </row>
     <row r="42">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6</v>
+        <v>0.675</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="D42" t="n">
-        <v>13.81554387452386</v>
+        <v>11.22517562477707</v>
       </c>
     </row>
     <row r="43">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="D43" t="n">
-        <v>13.81554387452386</v>
+        <v>10.36171287821622</v>
       </c>
     </row>
     <row r="44">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D44" t="n">
-        <v>13.81554387452386</v>
+        <v>10.07388307828005</v>
       </c>
     </row>
     <row r="45">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="D45" t="n">
-        <v>13.81554387452386</v>
+        <v>10.36171287821622</v>
       </c>
     </row>
     <row r="46">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D46" t="n">
-        <v>14.39119014777238</v>
+        <v>10.36171287821622</v>
       </c>
     </row>
     <row r="47">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="C47" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D47" t="n">
-        <v>14.10336701114812</v>
+        <v>10.6495426781524</v>
       </c>
     </row>
     <row r="48">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D48" t="n">
-        <v>13.81555053783578</v>
+        <v>10.93737247808857</v>
       </c>
     </row>
     <row r="49">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D49" t="n">
-        <v>13.52772740121153</v>
+        <v>10.6495426781524</v>
       </c>
     </row>
     <row r="50">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.625</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D50" t="n">
-        <v>12.95208779127493</v>
+        <v>10.07388307828005</v>
       </c>
     </row>
     <row r="51">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="D51" t="n">
-        <v>12.95208779127493</v>
+        <v>10.36169955159239</v>
       </c>
     </row>
     <row r="52">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="D52" t="n">
-        <v>12.95208779127493</v>
+        <v>10.36169955159239</v>
       </c>
     </row>
     <row r="53">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D53" t="n">
-        <v>11.80079524477791</v>
+        <v>10.36169955159239</v>
       </c>
     </row>
     <row r="54">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="D54" t="n">
-        <v>12.08861838140217</v>
+        <v>10.36169955159239</v>
       </c>
     </row>
     <row r="55">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.65</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D55" t="n">
-        <v>12.08861838140217</v>
+        <v>9.786053278343877</v>
       </c>
     </row>
     <row r="56">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C56" t="n">
         <v>0.8083333333333333</v>
       </c>
       <c r="D56" t="n">
-        <v>11.80079524477791</v>
+        <v>9.786053278343877</v>
       </c>
     </row>
     <row r="57">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D57" t="n">
-        <v>11.80079524477791</v>
+        <v>8.92258386847111</v>
       </c>
     </row>
     <row r="58">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D58" t="n">
-        <v>11.80079524477791</v>
+        <v>9.210413668407284</v>
       </c>
     </row>
     <row r="59">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D59" t="n">
-        <v>11.80079524477791</v>
+        <v>9.210413668407284</v>
       </c>
     </row>
     <row r="60">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D60" t="n">
-        <v>11.80079524477791</v>
+        <v>8.92258386847111</v>
       </c>
     </row>
     <row r="61">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D61" t="n">
-        <v>11.80079524477791</v>
+        <v>8.92258386847111</v>
       </c>
     </row>
     <row r="62">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D62" t="n">
-        <v>11.80079524477791</v>
+        <v>8.92258386847111</v>
       </c>
     </row>
     <row r="63">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D63" t="n">
-        <v>11.80080190808983</v>
+        <v>9.210413668407284</v>
       </c>
     </row>
     <row r="64">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D64" t="n">
-        <v>11.80080190808983</v>
+        <v>8.92258386847111</v>
       </c>
     </row>
     <row r="65">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D65" t="n">
-        <v>11.80080190808983</v>
+        <v>8.92258386847111</v>
       </c>
     </row>
     <row r="66">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D66" t="n">
-        <v>11.80080190808983</v>
+        <v>9.210413668407284</v>
       </c>
     </row>
     <row r="67">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D67" t="n">
-        <v>11.80080190808983</v>
+        <v>9.210413668407284</v>
       </c>
     </row>
     <row r="68">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.725</v>
       </c>
       <c r="C68" t="n">
         <v>0.8</v>
       </c>
       <c r="D68" t="n">
-        <v>11.51297877146557</v>
+        <v>9.498243468343457</v>
       </c>
     </row>
     <row r="69">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D69" t="n">
-        <v>11.51297877146557</v>
+        <v>9.786066604967713</v>
       </c>
     </row>
     <row r="70">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D70" t="n">
-        <v>11.51297210815366</v>
+        <v>9.786066604967713</v>
       </c>
     </row>
     <row r="71">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.675</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D71" t="n">
-        <v>11.22514230821748</v>
+        <v>9.786066604967713</v>
       </c>
     </row>
     <row r="72">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D72" t="n">
-        <v>11.80078858146599</v>
+        <v>10.07389640490389</v>
       </c>
     </row>
     <row r="73">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="D73" t="n">
-        <v>11.51297210815366</v>
+        <v>10.36171287821622</v>
       </c>
     </row>
     <row r="74">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.65</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D74" t="n">
-        <v>12.08864503464984</v>
+        <v>10.93735248815282</v>
       </c>
     </row>
     <row r="75">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.65</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D75" t="n">
-        <v>12.08864503464984</v>
+        <v>10.93735248815282</v>
       </c>
     </row>
     <row r="76">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D76" t="n">
-        <v>11.80082189802558</v>
+        <v>10.93735248815282</v>
       </c>
     </row>
     <row r="77">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D77" t="n">
-        <v>11.80081523471367</v>
+        <v>10.64952268821664</v>
       </c>
     </row>
     <row r="78">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.65</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="D78" t="n">
-        <v>12.08864503464984</v>
+        <v>10.93735248815282</v>
       </c>
     </row>
     <row r="79">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="D79" t="n">
-        <v>11.51299876140133</v>
+        <v>10.36170621490431</v>
       </c>
     </row>
     <row r="80">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8083333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D80" t="n">
-        <v>11.80082189802558</v>
+        <v>10.07387641496813</v>
       </c>
     </row>
     <row r="81">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.675</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D81" t="n">
-        <v>11.22517562477707</v>
+        <v>10.07387641496813</v>
       </c>
     </row>
     <row r="82">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.675</v>
+        <v>0.725</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="D82" t="n">
-        <v>11.22517562477707</v>
+        <v>9.49823680503154</v>
       </c>
     </row>
     <row r="83">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.675</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="D83" t="n">
-        <v>11.22517562477707</v>
+        <v>9.786059941655795</v>
       </c>
     </row>
     <row r="84">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D84" t="n">
-        <v>10.36170621490431</v>
+        <v>9.49823680503154</v>
       </c>
     </row>
     <row r="85">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D85" t="n">
-        <v>10.07388307828005</v>
+        <v>9.210413668407284</v>
       </c>
     </row>
     <row r="86">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D86" t="n">
-        <v>10.07388307828005</v>
+        <v>9.49823680503154</v>
       </c>
     </row>
     <row r="87">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D87" t="n">
-        <v>10.07388307828005</v>
+        <v>9.210413668407284</v>
       </c>
     </row>
     <row r="88">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="C88" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D88" t="n">
-        <v>9.786059941655795</v>
+        <v>9.49823680503154</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D89" t="n">
-        <v>10.07388307828005</v>
+        <v>9.49823680503154</v>
       </c>
     </row>
     <row r="90">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D90" t="n">
-        <v>10.07388307828005</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="91">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D91" t="n">
-        <v>10.07388307828005</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="92">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D92" t="n">
-        <v>10.36171954152814</v>
+        <v>8.922577205159191</v>
       </c>
     </row>
     <row r="93">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D93" t="n">
-        <v>10.07389640490389</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="94">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C94" t="n">
-        <v>0.75</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D94" t="n">
-        <v>9.786073268279631</v>
+        <v>8.922590531783028</v>
       </c>
     </row>
     <row r="95">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C95" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D95" t="n">
-        <v>9.786073268279631</v>
+        <v>9.210413668407284</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C96" t="n">
-        <v>0.75</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D96" t="n">
-        <v>9.786073268279631</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="97">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C97" t="n">
-        <v>0.75</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D97" t="n">
-        <v>9.786073268279631</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="98">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C98" t="n">
-        <v>0.75</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D98" t="n">
-        <v>9.786073268279631</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="99">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C99" t="n">
-        <v>0.75</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D99" t="n">
-        <v>9.786073268279631</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="100">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.725</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D100" t="n">
-        <v>9.498250131655375</v>
+        <v>8.922577205159193</v>
       </c>
     </row>
     <row r="101">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.725</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D101" t="n">
-        <v>9.498250131655375</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="102">
@@ -1791,10 +1791,10 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D102" t="n">
-        <v>9.210426995031121</v>
+        <v>9.210413668407284</v>
       </c>
     </row>
     <row r="103">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D103" t="n">
-        <v>9.210426995031121</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="104">
@@ -1819,10 +1819,10 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="C104" t="n">
-        <v>0.725</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D104" t="n">
-        <v>8.922603858406864</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="105">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.75</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D105" t="n">
-        <v>8.63478072178261</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="106">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D106" t="n">
-        <v>8.63478072178261</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="107">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C107" t="n">
-        <v>0.725</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D107" t="n">
-        <v>8.922603858406864</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="108">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C108" t="n">
-        <v>0.725</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D108" t="n">
-        <v>8.922603858406864</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="109">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D109" t="n">
-        <v>8.63478072178261</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="110">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C110" t="n">
-        <v>0.725</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D110" t="n">
-        <v>8.922610521718783</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="111">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D111" t="n">
-        <v>8.634787385094528</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="112">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D112" t="n">
-        <v>8.059141111846015</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="113">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D113" t="n">
-        <v>8.059141111846015</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="114">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D114" t="n">
-        <v>8.059141111846015</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="115">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D115" t="n">
-        <v>8.059141111846015</v>
+        <v>8.922577205159193</v>
       </c>
     </row>
     <row r="116">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D116" t="n">
-        <v>8.059141111846015</v>
+        <v>8.922577205159193</v>
       </c>
     </row>
     <row r="117">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D117" t="n">
-        <v>8.059141111846015</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="118">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D118" t="n">
-        <v>8.059141111846015</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="119">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D119" t="n">
-        <v>8.059141111846015</v>
+        <v>9.210407005095366</v>
       </c>
     </row>
     <row r="120">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D120" t="n">
-        <v>8.059141111846015</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="121">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D121" t="n">
-        <v>8.059141111846015</v>
+        <v>8.922583868471111</v>
       </c>
     </row>
     <row r="122">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C122" t="n">
         <v>0.775</v>
       </c>
-      <c r="C122" t="n">
-        <v>0.6916666666666667</v>
-      </c>
       <c r="D122" t="n">
-        <v>7.771317975221761</v>
+        <v>8.634760731846853</v>
       </c>
     </row>
     <row r="123">
@@ -2085,10 +2085,10 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D123" t="n">
-        <v>8.346957585158354</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="124">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="D124" t="n">
-        <v>8.346957585158354</v>
+        <v>7.771297985286005</v>
       </c>
     </row>
     <row r="125">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="C125" t="n">
         <v>0.7583333333333333</v>
       </c>
-      <c r="C125" t="n">
-        <v>0.7083333333333334</v>
-      </c>
       <c r="D125" t="n">
-        <v>8.346957585158354</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="126">
@@ -2127,10 +2127,10 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D126" t="n">
-        <v>8.346957585158354</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="127">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D127" t="n">
-        <v>9.210426995031121</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="128">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.75</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D128" t="n">
-        <v>8.63478072178261</v>
+        <v>8.059127785222179</v>
       </c>
     </row>
     <row r="129">
@@ -2169,10 +2169,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D129" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059127785222179</v>
       </c>
     </row>
     <row r="130">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C130" t="n">
         <v>0.7666666666666667</v>
       </c>
-      <c r="C130" t="n">
-        <v>0.7</v>
-      </c>
       <c r="D130" t="n">
-        <v>8.059134448534097</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="131">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C131" t="n">
         <v>0.7666666666666667</v>
       </c>
-      <c r="C131" t="n">
-        <v>0.7</v>
-      </c>
       <c r="D131" t="n">
-        <v>8.059134448534097</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="132">
@@ -2211,10 +2211,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D132" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="133">
@@ -2225,10 +2225,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D133" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="134">
@@ -2239,10 +2239,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D134" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="135">
@@ -2253,10 +2253,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D135" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="136">
@@ -2267,10 +2267,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D136" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="137">
@@ -2281,10 +2281,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D137" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="138">
@@ -2295,10 +2295,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D138" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="139">
@@ -2309,10 +2309,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D139" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="140">
@@ -2323,10 +2323,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D140" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="141">
@@ -2337,10 +2337,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D141" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="142">
@@ -2351,10 +2351,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D142" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="143">
@@ -2365,10 +2365,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D143" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="144">
@@ -2379,10 +2379,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D144" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="145">
@@ -2393,10 +2393,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D145" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="146">
@@ -2407,10 +2407,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D146" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="147">
@@ -2421,10 +2421,10 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D147" t="n">
-        <v>8.059134448534097</v>
+        <v>8.059121121910261</v>
       </c>
     </row>
     <row r="148">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C148" t="n">
         <v>0.7666666666666667</v>
       </c>
-      <c r="C148" t="n">
-        <v>0.7</v>
-      </c>
       <c r="D148" t="n">
-        <v>8.059134448534097</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="149">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C149" t="n">
         <v>0.7666666666666667</v>
       </c>
-      <c r="C149" t="n">
-        <v>0.7</v>
-      </c>
       <c r="D149" t="n">
-        <v>8.059134448534097</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="150">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C150" t="n">
         <v>0.7666666666666667</v>
       </c>
-      <c r="C150" t="n">
-        <v>0.7</v>
-      </c>
       <c r="D150" t="n">
-        <v>8.059134448534097</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="151">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C151" t="n">
         <v>0.7666666666666667</v>
       </c>
-      <c r="C151" t="n">
-        <v>0.7</v>
-      </c>
       <c r="D151" t="n">
-        <v>8.059134448534097</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="152">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D152" t="n">
-        <v>8.059134448534097</v>
+        <v>8.922597195094946</v>
       </c>
     </row>
     <row r="153">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7</v>
+        <v>0.775</v>
       </c>
       <c r="D153" t="n">
-        <v>8.059134448534097</v>
+        <v>8.634774058470692</v>
       </c>
     </row>
     <row r="154">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7</v>
+        <v>0.775</v>
       </c>
       <c r="D154" t="n">
-        <v>8.059134448534097</v>
+        <v>8.634774058470692</v>
       </c>
     </row>
     <row r="155">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D155" t="n">
-        <v>7.771311311909842</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="156">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D156" t="n">
-        <v>7.771311311909842</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="157">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D157" t="n">
-        <v>7.771311311909842</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="158">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C158" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D158" t="n">
-        <v>7.771311311909842</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="159">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>7.771311311909842</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="160">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D160" t="n">
-        <v>7.483488175285586</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="161">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D161" t="n">
-        <v>7.483481511973667</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="162">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D162" t="n">
-        <v>7.483481511973667</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="163">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D163" t="n">
-        <v>7.771304648597924</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="164">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D164" t="n">
-        <v>7.771304648597924</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="165">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C165" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D165" t="n">
-        <v>7.771304648597924</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="166">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C166" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D166" t="n">
-        <v>7.771304648597924</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="167">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C167" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D167" t="n">
-        <v>7.771304648597924</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="168">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D168" t="n">
-        <v>7.771304648597924</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="169">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D169" t="n">
-        <v>7.771304648597924</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="170">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C170" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D170" t="n">
-        <v>7.771304648597924</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="171">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D171" t="n">
-        <v>7.771304648597924</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="172">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C172" t="n">
         <v>0.7666666666666667</v>
       </c>
-      <c r="C172" t="n">
-        <v>0.7</v>
-      </c>
       <c r="D172" t="n">
-        <v>8.059127785222181</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="173">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D173" t="n">
-        <v>7.483481511973667</v>
+        <v>8.346950921846435</v>
       </c>
     </row>
     <row r="174">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C174" t="n">
         <v>0.775</v>
       </c>
-      <c r="C174" t="n">
-        <v>0.6916666666666667</v>
-      </c>
       <c r="D174" t="n">
-        <v>7.771304648597923</v>
+        <v>8.634774058470692</v>
       </c>
     </row>
     <row r="175">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D175" t="n">
-        <v>7.771304648597923</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="176">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D176" t="n">
-        <v>7.771304648597923</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="177">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C177" t="n">
-        <v>0.675</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D177" t="n">
-        <v>7.195658375349412</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="178">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D178" t="n">
-        <v>7.771304648597923</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="179">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D179" t="n">
-        <v>7.771304648597923</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="180">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D180" t="n">
-        <v>7.771304648597923</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="181">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C181" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D181" t="n">
-        <v>7.771304648597923</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="182">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C182" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D182" t="n">
-        <v>7.483474848661749</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="183">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C183" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D183" t="n">
-        <v>7.771304648597923</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="184">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C184" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D184" t="n">
-        <v>7.771304648597923</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="185">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C185" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D185" t="n">
-        <v>7.771311311909842</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="186">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.775</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C186" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D186" t="n">
-        <v>7.771311311909842</v>
+        <v>8.346944258534517</v>
       </c>
     </row>
     <row r="187">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D187" t="n">
-        <v>8.059127785222179</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="188">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D188" t="n">
-        <v>8.059127785222179</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="189">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D189" t="n">
-        <v>8.059127785222179</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="190">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D190" t="n">
-        <v>8.059127785222179</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="191">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D191" t="n">
-        <v>8.059127785222179</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="192">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D192" t="n">
-        <v>8.346957585158354</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="193">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D193" t="n">
-        <v>8.63478072178261</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="194">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D194" t="n">
-        <v>8.63478072178261</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="195">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D195" t="n">
-        <v>8.34697091178219</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="196">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D196" t="n">
-        <v>8.34697091178219</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="197">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D197" t="n">
-        <v>8.059147775157934</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="198">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C198" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D198" t="n">
-        <v>8.059147775157934</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="199">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D199" t="n">
-        <v>8.059147775157934</v>
+        <v>7.195658375349413</v>
       </c>
     </row>
     <row r="200">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="D200" t="n">
-        <v>7.483494838597505</v>
+        <v>6.907835238725156</v>
       </c>
     </row>
     <row r="201">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="D201" t="n">
-        <v>7.483494838597505</v>
+        <v>6.907835238725156</v>
       </c>
     </row>
     <row r="202">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="D202" t="n">
-        <v>7.483494838597505</v>
+        <v>6.907835238725156</v>
       </c>
     </row>
     <row r="203">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="D203" t="n">
-        <v>7.483494838597505</v>
+        <v>6.907835238725156</v>
       </c>
     </row>
     <row r="204">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="D204" t="n">
-        <v>7.483494838597505</v>
+        <v>6.907835238725156</v>
       </c>
     </row>
     <row r="205">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D205" t="n">
-        <v>7.483494838597505</v>
+        <v>6.620012102100901</v>
       </c>
     </row>
     <row r="206">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D206" t="n">
-        <v>7.483494838597505</v>
+        <v>6.620012102100901</v>
       </c>
     </row>
     <row r="207">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D207" t="n">
-        <v>7.483494838597505</v>
+        <v>6.332188965476646</v>
       </c>
     </row>
     <row r="208">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D208" t="n">
-        <v>7.483494838597505</v>
+        <v>6.332188965476646</v>
       </c>
     </row>
     <row r="209">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D209" t="n">
-        <v>7.483494838597505</v>
+        <v>6.044365828852389</v>
       </c>
     </row>
     <row r="210">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D210" t="n">
-        <v>7.483494838597505</v>
+        <v>6.044365828852389</v>
       </c>
     </row>
     <row r="211">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.8</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D211" t="n">
-        <v>6.907848565348993</v>
+        <v>5.468719555603879</v>
       </c>
     </row>
     <row r="212">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.8</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D212" t="n">
-        <v>6.907848565348993</v>
+        <v>5.468726218915797</v>
       </c>
     </row>
     <row r="213">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D213" t="n">
-        <v>6.907848565348993</v>
+        <v>5.75655601885197</v>
       </c>
     </row>
     <row r="214">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D214" t="n">
-        <v>6.907848565348993</v>
+        <v>6.044385818788144</v>
       </c>
     </row>
     <row r="215">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D215" t="n">
-        <v>6.907848565348993</v>
+        <v>5.756569345475807</v>
       </c>
     </row>
     <row r="216">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D216" t="n">
-        <v>6.907848565348993</v>
+        <v>6.044392482100063</v>
       </c>
     </row>
     <row r="217">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.825</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D217" t="n">
-        <v>6.044379155476226</v>
+        <v>6.620038755348574</v>
       </c>
     </row>
     <row r="218">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.825</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D218" t="n">
-        <v>6.044379155476226</v>
+        <v>6.620038755348574</v>
       </c>
     </row>
     <row r="219">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.825</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D219" t="n">
-        <v>6.044379155476226</v>
+        <v>6.620038755348574</v>
       </c>
     </row>
     <row r="220">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D220" t="n">
-        <v>5.75655601885197</v>
+        <v>6.620038755348574</v>
       </c>
     </row>
     <row r="221">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.825</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D221" t="n">
-        <v>5.75655601885197</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="222">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.825</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D222" t="n">
-        <v>5.75655601885197</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="223">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.825</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D223" t="n">
-        <v>5.75655601885197</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="224">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.825</v>
       </c>
       <c r="C224" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D224" t="n">
-        <v>5.75655601885197</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="225">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.825</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6416666666666667</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D225" t="n">
-        <v>6.044379155476226</v>
+        <v>5.468719555603878</v>
       </c>
     </row>
     <row r="226">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C226" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D226" t="n">
-        <v>4.893093272291122</v>
+        <v>5.756549355540051</v>
       </c>
     </row>
     <row r="227">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="C227" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D227" t="n">
-        <v>4.893093272291122</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="228">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C228" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="D228" t="n">
-        <v>4.893093272291122</v>
+        <v>5.756549355540051</v>
       </c>
     </row>
     <row r="229">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="C229" t="n">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="D229" t="n">
-        <v>5.468739545539633</v>
+        <v>6.044379155476226</v>
       </c>
     </row>
     <row r="230">
@@ -3583,10 +3583,10 @@
         <v>0.85</v>
       </c>
       <c r="C230" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="D230" t="n">
-        <v>5.180916408915378</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="231">
@@ -3597,10 +3597,10 @@
         <v>0.85</v>
       </c>
       <c r="C231" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="D231" t="n">
-        <v>5.180916408915378</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="232">
@@ -3611,10 +3611,10 @@
         <v>0.85</v>
       </c>
       <c r="C232" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="D232" t="n">
-        <v>5.180916408915378</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="233">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C233" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D233" t="n">
-        <v>4.893093272291122</v>
+        <v>5.468719555603878</v>
       </c>
     </row>
     <row r="234">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C234" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="D234" t="n">
-        <v>4.893093272291122</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="235">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C235" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="D235" t="n">
-        <v>4.893093272291122</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="236">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C236" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="D236" t="n">
-        <v>4.893093272291122</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="237">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C237" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="D237" t="n">
-        <v>4.893093272291122</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="238">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C238" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="D238" t="n">
-        <v>4.893093272291122</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="239">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C239" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D239" t="n">
-        <v>4.893093272291122</v>
+        <v>5.468712892291959</v>
       </c>
     </row>
     <row r="240">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C240" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D240" t="n">
-        <v>4.893093272291122</v>
+        <v>5.468712892291959</v>
       </c>
     </row>
     <row r="241">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C241" t="n">
-        <v>0.625</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D241" t="n">
-        <v>5.468739545539633</v>
+        <v>4.605243482419193</v>
       </c>
     </row>
     <row r="242">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C242" t="n">
-        <v>0.625</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D242" t="n">
-        <v>5.468739545539633</v>
+        <v>4.605243482419193</v>
       </c>
     </row>
     <row r="243">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C243" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D243" t="n">
-        <v>5.468739545539633</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="244">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C244" t="n">
-        <v>0.625</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D244" t="n">
-        <v>5.468739545539633</v>
+        <v>4.605243482419193</v>
       </c>
     </row>
     <row r="245">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C245" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D245" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180883092355786</v>
       </c>
     </row>
     <row r="246">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C246" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D246" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180883092355786</v>
       </c>
     </row>
     <row r="247">
@@ -3821,10 +3821,10 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="C247" t="n">
-        <v>0.625</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D247" t="n">
-        <v>5.468739545539633</v>
+        <v>5.468712892291959</v>
       </c>
     </row>
     <row r="248">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C248" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D248" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="249">
@@ -3849,10 +3849,10 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="C249" t="n">
-        <v>0.625</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D249" t="n">
-        <v>5.468739545539633</v>
+        <v>5.468712892291959</v>
       </c>
     </row>
     <row r="250">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C250" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D250" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180883092355786</v>
       </c>
     </row>
     <row r="251">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C251" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D251" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180883092355786</v>
       </c>
     </row>
     <row r="252">
@@ -3891,10 +3891,10 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="C252" t="n">
-        <v>0.625</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D252" t="n">
-        <v>5.468739545539633</v>
+        <v>5.468712892291959</v>
       </c>
     </row>
     <row r="253">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C253" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D253" t="n">
-        <v>5.468739545539633</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="254">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C254" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D254" t="n">
-        <v>5.468739545539633</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="255">
@@ -3933,10 +3933,10 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="C255" t="n">
-        <v>0.625</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D255" t="n">
-        <v>5.468739545539633</v>
+        <v>5.468726218915796</v>
       </c>
     </row>
     <row r="256">
@@ -3947,10 +3947,10 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="C256" t="n">
-        <v>0.625</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D256" t="n">
-        <v>5.468739545539633</v>
+        <v>5.468726218915796</v>
       </c>
     </row>
     <row r="257">
@@ -3961,10 +3961,10 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="C257" t="n">
-        <v>0.625</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D257" t="n">
-        <v>5.468739545539633</v>
+        <v>5.468726218915796</v>
       </c>
     </row>
     <row r="258">
@@ -3975,10 +3975,10 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="C258" t="n">
-        <v>0.625</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D258" t="n">
-        <v>5.468739545539633</v>
+        <v>5.468726218915796</v>
       </c>
     </row>
     <row r="259">
@@ -3989,10 +3989,10 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="C259" t="n">
-        <v>0.625</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D259" t="n">
-        <v>5.468739545539633</v>
+        <v>5.468726218915796</v>
       </c>
     </row>
     <row r="260">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C260" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D260" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="261">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C261" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D261" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="262">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C262" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D262" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="263">
@@ -4045,10 +4045,10 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="C263" t="n">
-        <v>0.625</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D263" t="n">
-        <v>5.468739545539633</v>
+        <v>5.468726218915796</v>
       </c>
     </row>
     <row r="264">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C264" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D264" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="265">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C265" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D265" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="266">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C266" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D266" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="267">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C267" t="n">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="D267" t="n">
-        <v>5.468739545539633</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="268">
@@ -4115,10 +4115,10 @@
         <v>0.85</v>
       </c>
       <c r="C268" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="D268" t="n">
-        <v>5.18090974560346</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="269">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.85</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="C269" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D269" t="n">
-        <v>5.18090974560346</v>
+        <v>5.468726218915796</v>
       </c>
     </row>
     <row r="270">
@@ -4143,10 +4143,10 @@
         <v>0.85</v>
       </c>
       <c r="C270" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="D270" t="n">
-        <v>5.18090974560346</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="271">
@@ -4157,10 +4157,10 @@
         <v>0.85</v>
       </c>
       <c r="C271" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="D271" t="n">
-        <v>5.18090974560346</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="272">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C272" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D272" t="n">
-        <v>5.468739545539633</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="273">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C273" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D273" t="n">
-        <v>5.468739545539633</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="274">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C274" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D274" t="n">
-        <v>5.468739545539633</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="275">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C275" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D275" t="n">
-        <v>5.468739545539633</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="276">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.8416666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C276" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D276" t="n">
-        <v>5.468739545539633</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="277">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.85</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C277" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D277" t="n">
-        <v>5.180916408915378</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="278">
@@ -4255,10 +4255,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C278" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D278" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="279">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C279" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="D279" t="n">
-        <v>4.893093272291122</v>
+        <v>5.180889755667704</v>
       </c>
     </row>
     <row r="280">
@@ -4283,10 +4283,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C280" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D280" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="281">
@@ -4297,10 +4297,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C281" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D281" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="282">
@@ -4311,10 +4311,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C282" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D282" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="283">
@@ -4325,10 +4325,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C283" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D283" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="284">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="C284" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="D284" t="n">
-        <v>4.893093272291122</v>
+        <v>5.180896418979622</v>
       </c>
     </row>
     <row r="285">
@@ -4353,10 +4353,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C285" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D285" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="286">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C286" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D286" t="n">
-        <v>4.893093272291122</v>
+        <v>4.605243482419193</v>
       </c>
     </row>
     <row r="287">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C287" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D287" t="n">
-        <v>4.893093272291122</v>
+        <v>4.605243482419193</v>
       </c>
     </row>
     <row r="288">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C288" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D288" t="n">
-        <v>4.893093272291122</v>
+        <v>4.605243482419193</v>
       </c>
     </row>
     <row r="289">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C289" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D289" t="n">
-        <v>4.893093272291122</v>
+        <v>4.605243482419193</v>
       </c>
     </row>
     <row r="290">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C290" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D290" t="n">
-        <v>4.893093272291122</v>
+        <v>4.605243482419193</v>
       </c>
     </row>
     <row r="291">
@@ -4437,10 +4437,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C291" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D291" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="292">
@@ -4451,10 +4451,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C292" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D292" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="293">
@@ -4465,10 +4465,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C293" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D293" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="294">
@@ -4479,10 +4479,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C294" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D294" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="295">
@@ -4493,10 +4493,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C295" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D295" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="296">
@@ -4507,10 +4507,10 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="C296" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D296" t="n">
-        <v>4.893093272291122</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="297">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C297" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D297" t="n">
-        <v>4.605263472354948</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="298">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C298" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D298" t="n">
-        <v>4.605263472354948</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="299">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C299" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D299" t="n">
-        <v>4.605263472354948</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="300">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C300" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D300" t="n">
-        <v>4.605263472354948</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="301">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="C301" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D301" t="n">
-        <v>4.605263472354948</v>
+        <v>4.893066619043449</v>
       </c>
     </row>
     <row r="302">
@@ -4591,10 +4591,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C302" t="n">
-        <v>0.6</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D302" t="n">
-        <v>4.605263472354948</v>
+        <v>4.605236819107275</v>
       </c>
     </row>
     <row r="303">
@@ -4605,10 +4605,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C303" t="n">
-        <v>0.6</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D303" t="n">
-        <v>4.605263472354948</v>
+        <v>4.605236819107275</v>
       </c>
     </row>
     <row r="304">
@@ -4619,10 +4619,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C304" t="n">
-        <v>0.6</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D304" t="n">
-        <v>4.605263472354948</v>
+        <v>4.605236819107275</v>
       </c>
     </row>
     <row r="305">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C305" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D305" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029590545858763</v>
       </c>
     </row>
     <row r="306">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C306" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D306" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029590545858763</v>
       </c>
     </row>
     <row r="307">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C307" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D307" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029590545858763</v>
       </c>
     </row>
     <row r="308">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C308" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="D308" t="n">
-        <v>4.605263472354948</v>
+        <v>3.45395093592217</v>
       </c>
     </row>
     <row r="309">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C309" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="D309" t="n">
-        <v>4.605263472354948</v>
+        <v>3.45395093592217</v>
       </c>
     </row>
     <row r="310">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C310" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="D310" t="n">
-        <v>4.605263472354948</v>
+        <v>3.45395093592217</v>
       </c>
     </row>
     <row r="311">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C311" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="D311" t="n">
-        <v>4.605263472354948</v>
+        <v>3.45395093592217</v>
       </c>
     </row>
     <row r="312">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C312" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="D312" t="n">
-        <v>4.605263472354948</v>
+        <v>3.45395093592217</v>
       </c>
     </row>
     <row r="313">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C313" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="D313" t="n">
-        <v>4.605263472354948</v>
+        <v>3.45395093592217</v>
       </c>
     </row>
     <row r="314">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C314" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D314" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="315">
@@ -4773,10 +4773,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C315" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D315" t="n">
-        <v>4.029617199106437</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="316">
@@ -4787,10 +4787,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C316" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D316" t="n">
-        <v>4.029617199106437</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="317">
@@ -4801,10 +4801,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C317" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D317" t="n">
-        <v>4.029617199106437</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="318">
@@ -4815,10 +4815,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C318" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D318" t="n">
-        <v>4.029617199106437</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="319">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C319" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D319" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="320">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C320" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D320" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="321">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C321" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D321" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="322">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C322" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D322" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="323">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C323" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D323" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="324">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C324" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D324" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="325">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C325" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D325" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="326">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C326" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D326" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="327">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C327" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D327" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="328">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C328" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D328" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="329">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C329" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D329" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="330">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C330" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D330" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="331">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C331" t="n">
-        <v>0.6</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D331" t="n">
-        <v>4.605263472354948</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="332">
@@ -5011,10 +5011,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C332" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D332" t="n">
-        <v>4.029617199106437</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="333">
@@ -5025,10 +5025,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C333" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D333" t="n">
-        <v>4.029617199106437</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="334">
@@ -5039,10 +5039,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C334" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D334" t="n">
-        <v>4.029617199106437</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="335">
@@ -5053,10 +5053,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C335" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D335" t="n">
-        <v>4.029617199106437</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="336">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C336" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D336" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="337">
@@ -5081,10 +5081,10 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="C337" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D337" t="n">
-        <v>4.029617199106437</v>
+        <v>4.029610535794518</v>
       </c>
     </row>
     <row r="338">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C338" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D338" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="339">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C339" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D339" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="340">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C340" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D340" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="341">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C341" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D341" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="342">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C342" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D342" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="343">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C343" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D343" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="344">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C344" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D344" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="345">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C345" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D345" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="346">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C346" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D346" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="347">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C347" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D347" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="348">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C348" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D348" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="349">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C349" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D349" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="350">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C350" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D350" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="351">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C351" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D351" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="352">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C352" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D352" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="353">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C353" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D353" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="354">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C354" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D354" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="355">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C355" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D355" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="356">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C356" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D356" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="357">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C357" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D357" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="358">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C358" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D358" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="359">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C359" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D359" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="360">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C360" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D360" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="361">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C361" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D361" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="362">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C362" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D362" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="363">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C363" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D363" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="364">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C364" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D364" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="365">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C365" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D365" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="366">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C366" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D366" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="367">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C367" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D367" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="368">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C368" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D368" t="n">
-        <v>4.317440335730693</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="369">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C369" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D369" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="370">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C370" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D370" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="371">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="C371" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D371" t="n">
-        <v>4.029617199106437</v>
+        <v>3.741780735858344</v>
       </c>
     </row>
     <row r="372">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C372" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D372" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="373">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C373" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D373" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="374">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C374" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D374" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="375">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C375" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D375" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C376" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D376" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="377">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C377" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D377" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="378">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C378" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D378" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="379">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C379" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D379" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="380">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C380" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D380" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="381">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C381" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D381" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="382">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C382" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D382" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="383">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C383" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D383" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="384">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C384" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D384" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="385">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C385" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D385" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="386">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C386" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D386" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="387">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C387" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D387" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="388">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C388" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D388" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="389">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C389" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D389" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="390">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C390" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D390" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="391">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C391" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D391" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="392">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C392" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D392" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="393">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C393" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D393" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="394">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C394" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D394" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="395">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C395" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D395" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="396">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C396" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D396" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="397">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C397" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D397" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="398">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C398" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D398" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="399">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C399" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D399" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="400">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C400" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D400" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="401">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C401" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D401" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="402">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C402" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D402" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="403">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C403" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D403" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="404">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C404" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D404" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="405">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C405" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D405" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="406">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C406" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D406" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="407">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C407" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D407" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="408">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C408" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D408" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="409">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C409" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D409" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="410">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C410" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="D410" t="n">
-        <v>4.029617199106437</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="411">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C411" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D411" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="412">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C412" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D412" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="413">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C413" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D413" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="414">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C414" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D414" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="415">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C415" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D415" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="416">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C416" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D416" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="417">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C417" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D417" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="418">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C418" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D418" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="419">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C419" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D419" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="420">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C420" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D420" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="421">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C421" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D421" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="422">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C422" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D422" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="423">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C423" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D423" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="424">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C424" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D424" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="425">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C425" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D425" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="426">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C426" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D426" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="427">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C427" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D427" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="428">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C428" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D428" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="429">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C429" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D429" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="430">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C430" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D430" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="431">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C431" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D431" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="432">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C432" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D432" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="433">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C433" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D433" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="434">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C434" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D434" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="435">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C435" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D435" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="436">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C436" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D436" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="437">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C437" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D437" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="438">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C438" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D438" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="439">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C439" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D439" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="440">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C440" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D440" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="441">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C441" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D441" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="442">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C442" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D442" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="443">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C443" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D443" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="444">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C444" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D444" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="445">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C445" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D445" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="446">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C446" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D446" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="447">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C447" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D447" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="448">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C448" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D448" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="449">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C449" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D449" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="450">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C450" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D450" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="451">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C451" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D451" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="452">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C452" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D452" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="453">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C453" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D453" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="454">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C454" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D454" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="455">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C455" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D455" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="456">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C456" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D456" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="457">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C457" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D457" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="458">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C458" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D458" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="459">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C459" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D459" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="460">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C460" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D460" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="461">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C461" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D461" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="462">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C462" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D462" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="463">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C463" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D463" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="464">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C464" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D464" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="465">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C465" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D465" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="466">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C466" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D466" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="467">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C467" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D467" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="468">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C468" t="n">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="D468" t="n">
-        <v>3.741787399170263</v>
+        <v>4.317427009106855</v>
       </c>
     </row>
     <row r="469">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C469" t="n">
-        <v>0.575</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D469" t="n">
-        <v>3.741787399170263</v>
+        <v>4.0296038724826</v>
       </c>
     </row>
     <row r="470">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C470" t="n">
-        <v>0.575</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D470" t="n">
-        <v>3.741787399170263</v>
+        <v>4.0296038724826</v>
       </c>
     </row>
     <row r="471">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C471" t="n">
-        <v>0.575</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D471" t="n">
-        <v>3.741787399170263</v>
+        <v>4.0296038724826</v>
       </c>
     </row>
     <row r="472">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>0.8916666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C472" t="n">
-        <v>0.575</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D472" t="n">
-        <v>3.741787399170263</v>
+        <v>4.0296038724826</v>
       </c>
     </row>
   </sheetData>
